--- a/Datasets/Intermediate-Dataset_2025-04-18.xlsx
+++ b/Datasets/Intermediate-Dataset_2025-04-18.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertopiranamedi/RiderProjects/Pulumissues/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929141A-0604-3E4D-9C1A-B683BBC02E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0DFA17-4460-224B-AE83-109574ED9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pulumi" sheetId="1" r:id="rId1"/>
-    <sheet name="proti" sheetId="2" r:id="rId2"/>
+    <sheet name="pulumi-dotnet" sheetId="3" r:id="rId2"/>
+    <sheet name="proti" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pulumi!$A$1:$A$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pulumi-dotnet'!$A$1:$H$96</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="642">
   <si>
     <t>Url</t>
   </si>
@@ -2169,6 +2171,3170 @@
   </si>
   <si>
     <t>Complexity</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/574</t>
+  </si>
+  <si>
+    <t>Dotnet Codegen produces invalid SDKs with clashing names for valid schemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+Dotnet Codegen can produce invalid SDKs for valid schemas which fail to build. This is an very common thing which happens in bridged providers as can be seen by the number of workarounds we've deployed over the years: https://github.com/search?q=org%3Apulumi+CSharpName&amp;type=code&amp;p=1
+Note that this is worse for Any TF providers as currently have no facility for renaming a property.
+I believe there's at least two different variants of this:
+1. When a resource has a property of the same name
+2. When a resource is named the same way as the enclosing module
+### Example
+From pulumi-gcp:
+```json
+        "gcp:accesscontextmanager/servicePerimeters:ServicePerimeters": {
+            "properties": {
+                "parent": {
+                    "type": "string",
+                },
+                "servicePerimeters": {
+                    "type": "array",
+                    "items": {
+                        "$ref": "#/types/gcp:accesscontextmanager/ServicePerimetersServicePerimeter:ServicePerimetersServicePerimeter"
+                    },
+                }
+            },
+            "required": [
+                "parent"
+            ],
+            "inputProperties": {
+                "parent": {
+                    "type": "string",
+                    "description": "The AccessPolicy this ServicePerimeter lives in.\nFormat: accessPolicies/{policy_id}\n\n\n- - -\n",
+                    "willReplaceOnChanges": true
+                },
+                "servicePerimeters": {
+                    "type": "array",
+                    "items": {
+                        "$ref": "#/types/gcp:accesscontextmanager/ServicePerimetersServicePerimeter:ServicePerimetersServicePerimeter"
+                    },
+                }
+            },
+            "requiredInputs": [
+                "parent"
+            ],
+            "stateInputs": {
+                "description": "Input properties used for looking up and filtering ServicePerimeters resources.\n",
+                "properties": {
+                    "parent": {
+                        "type": "string",
+                        "description": "The AccessPolicy this ServicePerimeter lives in.\nFormat: accessPolicies/{policy_id}\n\n\n- - -\n",
+                        "willReplaceOnChanges": true
+                    },
+                    "servicePerimeters": {
+                        "type": "array",
+                        "items": {
+                            "$ref": "#/types/gcp:accesscontextmanager/ServicePerimetersServicePerimeter:ServicePerimetersServicePerimeter"
+                        },
+                    }
+                },
+                "type": "object"
+            }
+        },
+```
+produces:
+```terminal
+cd sdk/dotnet/ &amp;&amp; dotnet build
+Restore complete (0.9s)
+  Pulumi.Gcp failed with 1 error(s) (6.4s)
+    /Users/vvm/code/pulumi-gcp/sdk/dotnet/AccessContextManager/ServicePerimeters.cs(146,82): error CS0542: 'ServicePerimeters': member names cannot be the same as their enclosing type
+Build failed with 1 error(s) in 8.7s
+make: *** [.make/build_dotnet] Error 1
+```
+### Output of `pulumi about`
+-
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/571</t>
+  </si>
+  <si>
+    <t>Improve debugging experience with `DebuggerDisplayAttribute`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+I observe that Pulumi inputs and outputs have some display issues within the vscode debugger. For example, the debugger tends to call the `ToString` method automatically when exploring variable values, which isn't too useful in this context and leads to spurious diagnostic console output.  In other words, the debugger causes unwanted side-effects.
+&lt;img width="642" alt="Image" src="https://github.com/user-attachments/assets/c07c4b1b-1a2a-4d70-b2a2-eb64de63ac95" /&gt;
+The act of expanding the variable value in the IDE causes diagnostic spew:
+```plain
+ +  pulumi:pulumi:Stack dotnet-example-yaml-dev create 1 warning
+Diagnostics:
+  pulumi:pulumi:Stack (dotnet-example-yaml-dev):
+    warning: Calling [ToString] on an [Output&lt;T&gt;] is not supported.
+    To get the value of an Output&lt;T&gt; as an Output&lt;string&gt; consider:
+    1. o.Apply(v =&gt; $"prefix{v}suffix")
+    2. Output.Format($"prefix{hostname}suffix");
+    See https://www.pulumi.com/docs/concepts/inputs-outputs for more details.
+```
+### Suggestions
+There's a set of attributes in `System.Diagnostics` to control how a debugger displays a given value. For example, one may suppress certain fields, apply format strings, and use proxy types.
+See: https://learn.microsoft.com/en-us/dotnet/framework/debug-trace-profile/enhancing-debugging-with-the-debugger-display-attributes
+I would suggest we annotate the built-in types as appropriate to improve how they're displayed. For example, a resolved input could be depicted as the literal value. In the above example, `length` is simply 3 but that's heavily obscured. At minimum, we could call an internal `toString()` method that doesn't cause spew.
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/568</t>
+  </si>
+  <si>
+    <t>[components/c#] Enum support</t>
+  </si>
+  <si>
+    <t>Similar to https://github.com/pulumi/pulumi/pull/19072, we should support enums in C#</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/532</t>
+  </si>
+  <si>
+    <t>TestSlnMultipleNested times out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+I keep seeing this test timeout on macOS dotnet 8.0.
+### Example
+https://github.com/pulumi/pulumi-dotnet/actions/runs/13729029597/job/38402038290?pr=531
+### Output of `pulumi about`
+N/A
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/510</t>
+  </si>
+  <si>
+    <t>Resource properties can end up null even if marked required</t>
+  </si>
+  <si>
+    <t>We discovered this while looking into https://github.com/pulumi/pulumi-dotnet/issues/456. 
+The resource property deserialiser works via reflection so can easily override nullability annotations. 
+We should fix the deserialiser to either fill in empty for null values, or mark all the output values as nullable.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/493</t>
+  </si>
+  <si>
+    <t>conformance test failure l1-keyword-overlap</t>
+  </si>
+  <si>
+    <t>```
+    --- FAIL: TestLanguage/l1-keyword-overlap (0.95s)
+        language_test.go:250: install dependencies: `dotnet build` failed to install dependencies: exit status 1
+            `dotnet build` failed to install dependencies: exit status 1
+            `dotnet build` failed to install dependencies: exit status 1
+        language_test.go:252: stdout: Installing dependencies...
+              Determining projects to restore...
+              Restored /private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/l1-keyword-overlap.csproj (in 122 ms).
+            /private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/Program.cs(18,9): error CS0623: Array initializers can only be used in a variable or field initializer. Try using a new expression instead. [/private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/l1-keyword-overlap.csproj]
+            /private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/Program.cs(16,9): error CS0820: Cannot initialize an implicitly-typed variable with an array initializer [/private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/l1-keyword-overlap.csproj]
+            Build FAILED.
+            /private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/Program.cs(18,9): error CS0623: Array initializers can only be used in a variable or field initializer. Try using a new expression instead. [/private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/l1-keyword-overlap.csproj]
+            /private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/Program.cs(16,9): error CS0820: Cannot initialize an implicitly-typed variable with an array initializer [/private/var/folders/st/5hv2zm0n2fz4r3jml8v99yf80000gn/T/TestLanguage2807171420/002/projects/l1-keyword-overlap/l1-keyword-overlap.csproj]
+                0 Warning(s)
+                2 Error(s)
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/491</t>
+  </si>
+  <si>
+    <t>conformance test failing: l2-component-call-simple</t>
+  </si>
+  <si>
+    <t>```
+=== FAIL: . TestLanguage/l2-component-call-simple (8.91s)
+    language_test.go:247: install dependencies: `dotnet build` failed to install dependencies: exit status 1
+        `dotnet build` failed to install dependencies: exit status 1
+        `dotnet build` failed to install dependencies: exit status 1
+    language_test.go:249: stdout: Installing dependencies...
+        MSBuild version 17.3.4+a400405ba for .NET
+          Determining projects to restore...
+          Restored /tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/l2-component-call-simple.csproj (in 368 ms).
+        /tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/Program.cs(15,47): error CS1061: 'string' does not contain a definition for 'Apply' and no accessible extension method 'Apply' accepting a first argument of type 'string' could be found (are you missing a using directive or an assembly reference?) [/tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/l2-component-call-simple.csproj]
+        /tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/Program.cs(16,47): error CS1061: 'string' does not contain a definition for 'Apply' and no accessible extension method 'Apply' accepting a first argument of type 'string' could be found (are you missing a using directive or an assembly reference?) [/tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/l2-component-call-simple.csproj]
+        Build FAILED.
+        /tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/Program.cs(15,47): error CS1061: 'string' does not contain a definition for 'Apply' and no accessible extension method 'Apply' accepting a first argument of type 'string' could be found (are you missing a using directive or an assembly reference?) [/tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/l2-component-call-simple.csproj]
+        /tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/Program.cs(16,47): error CS1061: 'string' does not contain a definition for 'Apply' and no accessible extension method 'Apply' accepting a first argument of type 'string' could be found (are you missing a using directive or an assembly reference?) [/tmp/TestLanguage3456648884/002/projects/l2-component-call-simple/l2-component-call-simple.csproj]
+            0 Warning(s)
+            2 Error(s)
+        Time Elapsed 00:00:02.06
+    language_test.go:250: stderr: 
+    language_test.go:251: 
+        	Error Trace:	/home/runner/work/pulumi-dotnet/pulumi-dotnet/pulumi-language-dotnet/language_test.go:251
+        	Error:      	Should be true
+        	Test:       	TestLanguage/l2-component-call-simple
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/490</t>
+  </si>
+  <si>
+    <t>conformance test failing l1-builtin-try</t>
+  </si>
+  <si>
+    <t>```
+=== FAIL: . TestLanguage/l1-builtin-try (0.01s)
+    language_test.go:247: generate project: main.pp:8,11-14: unknown function 'try'; , and 3 other diagnostic(s)
+    language_test.go:249: stdout: 
+    language_test.go:250: stderr: 
+    language_test.go:251: 
+        	Error Trace:	/home/runner/work/pulumi-dotnet/pulumi-dotnet/pulumi-language-dotnet/language_test.go:251
+        	Error:      	Should be true
+        	Test:       	TestLanguage/l1-builtin-try
+```
+codegen unimplemented</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/489</t>
+  </si>
+  <si>
+    <t>conformance test failing l1-builtin-can</t>
+  </si>
+  <si>
+    <t>```
+=== FAIL: . TestLanguage/l1-builtin-can (0.01s)
+    language_test.go:247: generate project: main.pp:12,11-14: unknown function 'can'; , and 2 other diagnostic(s)
+    language_test.go:249: stdout: 
+    language_test.go:250: stderr: 
+    language_test.go:251: 
+        	Error Trace:	/home/runner/work/pulumi-dotnet/pulumi-dotnet/pulumi-language-dotnet/language_test.go:251
+        	Error:      	Should be true
+        	Test:       	TestLanguage/l1-builtin-can
+```
+codegen unimplemented</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/485</t>
+  </si>
+  <si>
+    <t>Dependency Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This issue lists Renovate updates and detected dependencies. Read the [Dependency Dashboard](https://docs.renovatebot.com/key-concepts/dashboard/) docs to learn more.
+## Pending Approval
+These branches will be created by Renovate only once you click their checkbox below.
+ - [ ] &lt;!-- approve-branch=renovate/pin-dependencies --&gt;Pin dependencies (`MinoruSekine/setup-scoop`, `actions/cache`, `actions/checkout`, `actions/setup-dotnet`, `actions/setup-go`, `codecov/codecov-action`, `golangci/golangci-lint-action`, `goreleaser/goreleaser-action`, `jaxxstorm/action-install-gh-release`, `miniscruff/changie-action`)
+ - [ ] &lt;!-- approve-branch=renovate/github.com-tgummerer-clipboard-digest --&gt;Update github.com/tgummerer/clipboard digest to 1438b32
+ - [ ] &lt;!-- approve-branch=renovate/pulumi-digest --&gt;Update pulumi digest to aa59376
+ - [ ] &lt;!-- approve-branch=renovate/fluentassertions-6.x --&gt;Update dependency FluentAssertions to 6.12.2
+ - [ ] &lt;!-- approve-branch=renovate/newtonsoft.json-13.x --&gt;Update dependency Newtonsoft.Json to 13.0.3
+ - [ ] &lt;!-- approve-branch=renovate/go-1.x --&gt;Update dependency go to v1.24.2
+ - [ ] &lt;!-- approve-branch=renovate/github.com-sirupsen-logrus-1.x --&gt;Update module github.com/sirupsen/logrus to v1.9.3
+ - [ ] &lt;!-- approve-branch=renovate/google.golang.org-grpc-1.x --&gt;Update module google.golang.org/grpc to v1.71.1
+ - [ ] &lt;!-- approve-branch=renovate/google.golang.org-protobuf-1.x --&gt;Update module google.golang.org/protobuf to v1.36.6
+ - [ ] &lt;!-- approve-branch=renovate/codecov-codecov-action-5.x --&gt;Update codecov/codecov-action action to v5
+ - [ ] &lt;!-- approve-branch=renovate/fake.core.environment-6.x --&gt;Update dependency Fake.Core.Environment to v6
+ - [ ] &lt;!-- approve-branch=renovate/fake.core.target-6.x --&gt;Update dependency Fake.Core.Target to v6
+ - [ ] &lt;!-- approve-branch=renovate/fluentassertions-8.x --&gt;Update dependency FluentAssertions to v8
+ - [ ] &lt;!-- approve-branch=renovate/ubuntu-24.x --&gt;Update dependency ubuntu to v24
+ - [ ] &lt;!-- approve-branch=renovate/golangci-golangci-lint-action-7.x --&gt;Update golangci/golangci-lint-action action to v7
+ - [ ] &lt;!-- approve-branch=renovate/goreleaser-goreleaser-action-6.x --&gt;Update goreleaser/goreleaser-action action to v6
+ - [ ] &lt;!-- approve-all-pending-prs --&gt;🔐 **Create all pending approval PRs at once** 🔐
+## Open
+These updates have all been created already. Click a checkbox below to force a retry/rebase of any.
+ - [ ] &lt;!-- rebase-branch=renovate/pulumi --&gt;[Update first-party Pulumi dependencies to v3.163.0](../pull/552) (`github.com/pulumi/pulumi/pkg/v3`, `github.com/pulumi/pulumi/sdk/v3`)
+## Detected dependencies
+&lt;details&gt;&lt;summary&gt;git-submodules&lt;/summary&gt;
+&lt;blockquote&gt;
+&lt;details&gt;&lt;summary&gt;.gitmodules&lt;/summary&gt;
+ - `pulumi master@2fb7db237a201f315f1f21464ecadb1da558a719`
+&lt;/details&gt;
+&lt;/blockquote&gt;
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;github-actions&lt;/summary&gt;
+&lt;blockquote&gt;
+&lt;details&gt;&lt;summary&gt;.github/workflows/changelog.yml&lt;/summary&gt;
+ - `actions/checkout v4`
+ - `miniscruff/changie-action v2`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;.github/workflows/on-release.yml&lt;/summary&gt;
+ - `actions/checkout v4`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;.github/workflows/pr.yml&lt;/summary&gt;
+ - `actions/checkout v4`
+ - `actions/setup-dotnet v4`
+ - `actions/setup-dotnet v4`
+ - `actions/checkout v4`
+ - `actions/setup-go v5`
+ - `golangci/golangci-lint-action v4`
+ - `actions/checkout v4`
+ - `actions/setup-dotnet v4`
+ - `pulumi/actions v6@9519177da243fd32cab35cdbf19cce1ab7472fcc`
+ - `pulumi/git-status-check-action v1`
+ - `codecov/codecov-action v4`
+ - `actions/checkout v4`
+ - `actions/setup-dotnet v4`
+ - `actions/setup-go v5`
+ - `pulumi/actions v6@9519177da243fd32cab35cdbf19cce1ab7472fcc`
+ - `jaxxstorm/action-install-gh-release v2.0.0`
+ - `MinoruSekine/setup-scoop v4.0.1`
+ - `actions/checkout v4`
+ - `actions/setup-dotnet v4`
+ - `actions/setup-go v5`
+ - `pulumi/actions v6@9519177da243fd32cab35cdbf19cce1ab7472fcc`
+ - `jaxxstorm/action-install-gh-release v2.0.0`
+ - `actions/checkout v4`
+ - `miniscruff/changie-action v2`
+ - `miniscruff/changie-action v2`
+ - `ubuntu 22.04`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;.github/workflows/release-dotnet-provider.yml&lt;/summary&gt;
+ - `actions/checkout v4`
+ - `actions/setup-go v5`
+ - `actions/cache v4`
+ - `miniscruff/changie-action v2`
+ - `goreleaser/goreleaser-action v5`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;.github/workflows/release-sdk.yml&lt;/summary&gt;
+ - `actions/checkout v4`
+ - `actions/setup-dotnet v4`
+ - `pulumi/actions v6@9519177da243fd32cab35cdbf19cce1ab7472fcc`
+&lt;/details&gt;
+&lt;/blockquote&gt;
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;gomod&lt;/summary&gt;
+&lt;blockquote&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/go.mod&lt;/summary&gt;
+ - `go 1.24`
+ - `go 1.24.0`
+ - `github.com/sirupsen/logrus v1.5.0`
+ - `github.com/blang/semver v3.5.1+incompatible`
+ - `github.com/golang/protobuf v1.5.4`
+ - `github.com/pulumi/pulumi/pkg/v3 v3.157.0`
+ - `github.com/pulumi/pulumi/sdk/v3 v3.157.0`
+ - `github.com/stretchr/testify v1.10.0`
+ - `google.golang.org/grpc v1.67.1`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;pulumi-language-dotnet/go.mod&lt;/summary&gt;
+ - `go 1.24`
+ - `go 1.24.0`
+ - `github.com/sirupsen/logrus v1.5.0`
+ - `github.com/gogo/protobuf v1.3.2`
+ - `github.com/tgummerer/clipboard v0.0.0-20241001131231-d02d263e614e@d02d263e614e`
+ - `github.com/blang/semver v3.5.1+incompatible`
+ - `github.com/pkg/errors v0.9.1`
+ - `github.com/pulumi/pulumi/pkg/v3 v3.157.1-0.20250321133428-c309125a3b24@c309125a3b24`
+ - `github.com/pulumi/pulumi/sdk/v3 v3.157.1-0.20250321133428-c309125a3b24@c309125a3b24`
+ - `github.com/stretchr/testify v1.10.0`
+ - `google.golang.org/grpc v1.67.1`
+ - `google.golang.org/protobuf v1.35.1`
+&lt;/details&gt;
+&lt;/blockquote&gt;
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;nuget&lt;/summary&gt;
+&lt;blockquote&gt;
+&lt;details&gt;&lt;summary&gt;Build.fsproj&lt;/summary&gt;
+ - `Newtonsoft.Json 13.0.2`
+ - `Fake.Core.Target 5.23.1`
+ - `Fake.Core.Environment 5.23.1`
+ - `CliWrap 3.5.0`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/about/about-csharp.csproj&lt;/summary&gt;
+ - `Pulumi.Aws 4.*`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/get_resource/GetResource.csproj&lt;/summary&gt;
+ - `Pulumi.Random 4.18.0`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/provider_call/dotnet/ProviderCall.csproj&lt;/summary&gt;
+ - `FluentAssertions 6.12.0`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/provider_construct/dotnet/ProviderConstruct.csproj&lt;/summary&gt;
+ - `FluentAssertions 6.12.0`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/provider_construct_dependencies/dotnet/ProviderConstructDependencies.csproj&lt;/summary&gt;
+ - `FluentAssertions 6.12.0`
+&lt;/details&gt;
+&lt;details&gt;&lt;summary&gt;integration_tests/transformations_simple/Transformations.csproj&lt;/summary&gt;
+ - `Pulumi.Random 4.18.0`
+&lt;/details&gt;
+&lt;/blockquote&gt;
+&lt;/details&gt;
+---
+- [ ] &lt;!-- manual job --&gt;Check this box to trigger a request for Renovate to run again on this repository
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/470</t>
+  </si>
+  <si>
+    <t>conformance test failure TestLanguage/l2-parameterized-resource</t>
+  </si>
+  <si>
+    <t>```
+  --- FAIL: TestLanguage/l2-parameterized-resource (16.64s)
+        language_test.go:247: interface.go:1135:
+                Error Trace:    /Users/brpol/src/pulumi/pulumi-dotnet/pulumi/cmd/pulumi-test-language/interface.go:1135
+                                                        /Users/brpol/src/pulumi/pulumi-dotnet/pulumi/cmd/pulumi-test-language/interface.go:1144
+                                                        /Users/brpol/src/pulumi/pulumi-dotnet/pulumi/cmd/pulumi-test-language/tests/types.go:182
+                                                        /opt/homebrew/Cellar/go/1.23.5/libexec/src/runtime/asm_arm64.s:1223
+                Error:          Received unexpected error:
+                                BAIL: an unhandled error occurred: Program exited with non-zero exit code: 134
+                Messages:       expected no error in preview
+        language_test.go:249: stdout: Created stack 'test'
+                pulumi:pulumi:Stack l2-parameterized-resource-test  error: an unhandled error occurred: Program exited with non-zero exit code: 134
+                pulumi:pulumi:Stack l2-parameterized-resource-test  1 error
+            Diagnostics:
+              pulumi:pulumi:Stack (l2-parameterized-resource-test):
+                error: an unhandled error occurred: Program exited with non-zero exit code: 134
+            Resources:
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/467</t>
+  </si>
+  <si>
+    <t>auto: `Yaml` and `Java` are missing from `ProjectRuntimeName`</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/blob/654f993bc30a9e3a0e2b3166d4273fd980a05ec3/sdk/Pulumi.Automation/ProjectRuntimeName.cs#L8-L15
+This enum is missing `Yaml` and `Java`.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/448</t>
+  </si>
+  <si>
+    <t>Add support for invoke transforms</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/446</t>
+  </si>
+  <si>
+    <t>dotnet conversions result in errors "unable to find package" because it does not set up using a relative path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This results in an error before SDK generation and so conversions from terraform to csharp are broken.
+Hint: The error is likely in the pulumi-language-dotnet implementation of GenerateProject which seems to check for all the dependencies to exist and if not errors.  Other languages simply generate the project and that gets filled in afterwards.  </t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/421</t>
+  </si>
+  <si>
+    <t>Using component resources as parents hangs program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+We tried to parent a CustomResource to a Component Resource from a  c# component provider
+In typescript this construct worked out perfectly fine. In C# this causes the whole program to hang forever
+### Example
+```c#
+var componentResource = new ComponentResource("test", "name", new  ComponentResourceOptions(){});
+new CustomResource("test", "name",null, new  CustomResourceOptions()
+{
+    Parent = componentResource
+});
+```
+### Output of `pulumi about`
+latest pulumi runtime and langue runtime
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/409</t>
+  </si>
+  <si>
+    <t>Calling RegisterOutput in a Component Resource is not working with Output that contains an OutputType</t>
+  </si>
+  <si>
+    <t>As per documentation we added a `RegisterOutputs()` call to the end of our component resources.
+If you have an output value like this:
+```
+    [OutputType]
+    public sealed class ComplexOutput
+    {
+        public readonly string Name;
+        [OutputConstructor]
+        private ComplexOutput(string name)
+          Name = name;
+        }
+    }
+```
+And use this in a component resource
+```
+public sealed class MyComponentResource: ComponentResource
+{
+    public MyComponentResource(string name, Args args, ComponentResourceOptions? options = null)
+        : base("myType" name, args, options)
+    {
+      Output = Output.Create(new ComplexOutput("someValue"))
+      RegisterOutputs()
+    }
+    [Output("output")]
+    public Output&lt;ComplexOutput&gt; Output { get; init; }
+}
+```
+```
+A an exception will be raised "DatacenterOutput is not a supported argument type" in Pulumi.Serialization.Serializer.SerializeAsync</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/403</t>
+  </si>
+  <si>
+    <t>TestDebuggerAttachDotnet is flaky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+This test keeps timing out but seemingly only on macos-12.
+### Example
+https://github.com/pulumi/pulumi-dotnet/actions/runs/11956317375/job/33330781813?pr=400
+### Output of `pulumi about`
+N/A
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/402</t>
+  </si>
+  <si>
+    <t>Release process can fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something's wrong with the release process, just noticed we're missing the last few releases from nuget: https://www.nuget.org/packages/Pulumi/
+No 3.68 release, and the job for it failed https://github.com/pulumi/pulumi-dotnet/actions/runs/10900286299/job/30247564709. </t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/398</t>
+  </si>
+  <si>
+    <t>Add RPCs necessary to register engine when debugging with PULUMI_DEBUG_LANGUAGES</t>
+  </si>
+  <si>
+    <t>Blocked by pulumi#17821
+See that PR for details and examples of how this is implemented in Go/Python/Nodejs</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/391</t>
+  </si>
+  <si>
+    <t>Improve documentation around usage of `LocalWorkspace.CreateAsync`</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+Slightly related to the tests for #382 - it seems `LocalWorkspace.CreateAsync` requires either `WorkDir` or `ProjectSettings` to be set. Otherwise, when attempting to delete the stack an unhelpful error is given as (I assume) there's no project to infer:
+```
+  Error Message:
+   Pulumi.Automation.Commands.Exceptions.CommandException : code: 255
+stdout: 
+stderr: error: if you're using the --stack flag, pass the fully qualified name (organization/project/stack)
+  Stack Trace:
+     at Pulumi.Automation.Commands.LocalPulumiCommand.RunAsyncInner(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, String stdIn, EventLogFile eventLogFile, CancellationToken cancellationToken) in /_/sdk/Pulumi.Automation/Commands/LocalPulumiCommand.cs:line 356
+   at Pulumi.Automation.Commands.LocalPulumiCommand.RunInputAsync(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, String stdIn, Action`1 onEngineEvent, CancellationToken cancellationToken) in /_/sdk/Pulumi.Automation/Commands/LocalPulumiCommand.cs:line 302 
+```
+* Is there an opportunity to better document this behavior?
+* Is the expectation that the usage of `LocalWorkspace.CreateAsync` include project data outside of the ctor at some point? 
+* For this scenario, could the error message be made clearer?
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+Automation API</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/387</t>
+  </si>
+  <si>
+    <t>Specifying an EncryptedKey in a LocalWorkspace does not take effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+When using an s3 storage with an AWS KMS secrets provider in the Automation API using a LocalWorkSpace, then the following issue arises.  A stack can be created, but any subsequent updates to the stack throws the following error.
+`[EncryptedKey](error: getting stack configuration: get stack secrets manager: passphrase must be set with PULUMI_CONFIG_PASSPHRASE or PULUMI_CONFIG_PASSPHRASE_FILE environment variables)`
+I noticed that the EncryptedKey setting in my code is not used for the stack.  When I open the stored stack on S3, I get a different output.  Hence, I assume that for each subsequent update a new EncryptedKey gets generated, which doesn't match the EncryptedKey placed into the state file.
+### Example
+```
+var localWorkspaceOptions = new LocalWorkspaceOptions
+        {
+            ProjectSettings = new ProjectSettings("myproject", ProjectRuntimeName.Dotnet),
+            Program = program,
+            StackSettings = new Dictionary&lt;string, StackSettings&gt;()
+            {
+                {
+                    "testing", 
+                    new StackSettings
+                    {
+                        SecretsProvider = "awskms://da524141-XXXX-XXX-XXXX-XXXXX?region=eu-central-1",
+                        EncryptedKey = "AQICAHioRE7kely3Y0APYnfykSFlm9omthRRQFVxeLpvmR6wFAEo3wydNS27n4rb2Xcrhg6eAAAAfjB8BgkqhkiG9w0BBwagbzBtAgEAMGgGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQM9Z4loL0JxVTkKf5jAgEQgDurHRNz6FFm7Bk6L4mdkGH5yV4P4uqEcr5smTBVcd/kNEFMGu+avg7VlhGUVCngpjkRRjNFvmw5+afMrw=="
+                    }
+                }
+            }
+        };
+        var localWorkSpace = await LocalWorkspace.CreateAsync(localWorkspaceOptions);
+        var stack = await WorkspaceStack.CreateOrSelectAsync("testing", localWorkSpace);
+```
+When I grab the stack file from S3, I get the following.  As one can see, the EncrypedKey in the stack file and the EncryptedKey in the code don't match.
+```
+"checkpoint": {
+        "stack": "organization/kmon.company.infra.service/2a87a0e8-c1c7-46d9-8da3-b142e5ca3688_54b89cf7-400b-47eb-bf9e-cb2c4e7687a9",
+        "latest": {
+            "manifest": {
+                "time": "2024-11-14T11:59:30.752042+08:00",
+                "magic": "668ca25d7f85ccc6ac87bbb638bb84f209eef6d0a451c1879fb6018ee75ce8ea",
+                "version": "v3.137.0"
+            },
+            "secrets_providers": {
+                "type": "cloud",
+                "state": {
+                    "url": "awskms://da524141-XXXX-XXX-XXXX-XXXXX?region=eu-central-1",
+                    "encryptedkey": "AQICAHioRE7kely3Y0APYnfykSFlm9omthRRQFVxeLpvmR6wFAHUHV6Bh8EbCb6Z6q/O+GEvAAAAfjB8BgkqhkiG9w0BBwagbzBtAgEAMGgGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMPbXcomEvaQOYG9xTAgEQgDu8BYonp58Dcg2G3jg5jHVWuHaY1gtLAxY0iZSg5hXO204ECI1SRfSLjRt+3VPBw1GNB/A8knCBRctVhQ=="
+                }
+            },
+...
+}
+```
+### Output of `pulumi about`
+running 'dotnet build -nologo .'
+  Determining projects to restore...
+  All projects are up-to-date for restore.
+  pattern.data.encryption.library -&gt; /Users/.../Debug/net8.0/pattern.data.encryption.library.dll
+/usr/local/share/dotnet/sdk/8.0.403/Microsoft.Common.CurrentVersion.targets(2412,5): warning MSB3245: Could not resolve this reference. Could not locate the assembly "Microsoft.IdentityModel.Tokens". Check to make sure the assembly exists on disk. If this reference is required by your code, you may get compilation errors. [/Users/.../xxx.csproj]
+/usr/local/share/dotnet/sdk/8.0.403/Microsoft.Common.CurrentVersion.targets(2412,5): warning MSB3245: Could not resolve this reference. Could not locate the assembly "System.IdentityModel.Tokens.Jwt". Check to make sure the assembly exists on disk. If this reference is required by your code, you may get compilation errors. [/Users/.../xxx.csproj]
+  pattern.data.shared.services -&gt; /Users/.../bin/Debug/net8.0/pattern.data.shared.services.dll
+  pattern.data.service.iam -&gt; /Users/.../bin/Debug/net8.0/pattern.data.service.iam.dll
+  kmon.company.infra.service -&gt; /Users/.../bin/Debug/net8.0/kmon.company.infra.service.dll
+Build succeeded.
+/usr/local/share/dotnet/sdk/8.0.403/Microsoft.Common.CurrentVersion.targets(2412,5): warning MSB3245: Could not resolve this reference. Could not locate the assembly "Microsoft.IdentityModel.Tokens". Check to make sure the assembly exists on disk. If this reference is required by your code, you may get compilation errors. [/Users/.../xxx.csproj]
+/usr/local/share/dotnet/sdk/8.0.403/Microsoft.Common.CurrentVersion.targets(2412,5): warning MSB3245: Could not resolve this reference. Could not locate the assembly "System.IdentityModel.Tokens.Jwt". Check to make sure the assembly exists on disk. If this reference is required by your code, you may get compilation errors. [/Users/.../xxx.csproj]
+    2 Warning(s)
+    0 Error(s)
+Time Elapsed 00:00:01.17
+'dotnet build -nologo .' completed successfully
+CLI          
+Version      3.137.0
+Go Version   go1.23.2
+Go Compiler  gc
+Plugins
+KIND      NAME    VERSION
+resource  aws     6.57.0
+language  dotnet  unknown
+Host     
+OS       darwin
+Version  14.6.1
+Arch     arm64
+This project is written in dotnet: executable='/usr/local/bin/dotnet' version='8.0.403'
+Backend        
+Name           xxx-MBP
+URL            s3://xxxx-pstate
+User           dxxxxxxx
+Organizations  
+Token type     personal
+Dependencies:
+NAME                                           VERSION
+Microsoft.AspNetCore.Authentication.JwtBearer  8.0.8
+Microsoft.AspNetCore.OpenApi                   8.0.10
+NSwag.Annotations                              14.1.0
+NSwag.AspNetCore                               14.1.0
+Pulumi.Automation                              3.68.1-alpha.b035300
+Pulumi.Aws                                     6.57.0
+Swashbuckle.AspNetCore                         6.6.2
+Pulumi locates its logs in /var/folders/wg/xwyrm5ld5rz1cqpqmsb20zgm0000gn/T/ by default
+warning: Failed to get information about the current stack: No current stack
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/380</t>
+  </si>
+  <si>
+    <t>Add test that ensures the SDK doesn't make too many debug log calls by default</t>
+  </si>
+  <si>
+    <t>Add a test similar to the ones added for Python, Node.js, and Go in ttps://github.com/pulumi/pulumi/pull/17489</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/377</t>
+  </si>
+  <si>
+    <t>Output values do not serialize to the same objects as they deserialize from</t>
+  </si>
+  <si>
+    <t>So we may have an edge usecase that show some intressing beauvoirs for the serialiazation.
+For Context: We have a MLC c# provider that uses the sdk generator classes as the actual output objects in the components provider implementations, to be sure our output and the schema stay in sync.
+We also use c# for the consuming side with the exact same sdk.
+Now the actual issues are the generator output classes, they look like this:
+```
+    [OutputType]
+    public sealed class DatacenterOutput
+    {
+        public readonly string Name;
+        [OutputConstructor]
+        private DatacenterOutput(string name)
+          Name = name;
+        }
+    }
+}
+```
+The problem is now they get serialized like:
+```
+{ 
+   "Name": "someValue"
+}
+```
+But then the deserialization takes the names of the properties from the Output Contructors arguments names
+So the expected value is now
+```
+{
+   "name":"someValue"
+}
+```
+ Since this does not match up. The client side sets all fields to null and then the programm crashes since they were not optional.
+There are now two worarounds: Adding [Output( Name = "name"] to the property or [OutputConstructorParameter("Name")] on the constructor.
+Bot both would require you to modify the generated.
+I am happy to work on a fix, but I am really unsure how/where this is actually to be fixed. So wanted to gather some feedback on this bug.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/374</t>
+  </si>
+  <si>
+    <t>PulumiFn.Create&lt;TStack&gt;() only accepts empty constructor stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+PulumiFn.Create&lt;TStack&gt;() only works with empty Constructors.  However, I wish to implement a web service that creates a stack per user.  Thus the web app needs to pass parameters to the Stack via the constructor.  
+```
+public class MyCustomStack: Stack
+{
+    public MyCustomStack(string parameter1, string parameter2)
+    {
+      ....
+    }
+}
+var program = PulumiFn&lt;MyCustomStack&gt;("param1", "param2");
+```
+I cannot do the following as PulumiFn is marked as an internal class.
+```
+new PulumiFn&lt;MyCustomStack&gt;(() =&gt;
+            new MyCustomStack("param1", "param2"));
+```
+### Affected area/feature
+Automation API, but could also be implemented for the CLI.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/370</t>
+  </si>
+  <si>
+    <t>Allow customization of JsonSerializationOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+Right now to deserialize configuration Pulumi use [default settings for JsonSerializer](https://github.com/pulumi/pulumi-dotnet/blob/2aa84b517a894d432fcb1200531633ed9aee0b9b/sdk/Pulumi/Config.cs#L163). That means that if someone wants to use to use different configuration then it's forced to use eg `JsonPropertyName` and others tools on each class which makes code harder to read. It would be great if there was an option to override it and provide custom `JsonSerializerOptions`.
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/366</t>
+  </si>
+  <si>
+    <t>Wrong type for Config in ProjectSettingsModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+There is wrong property type for `Config` in `ProjectSettingsModel`. Right now it's [string](https://github.com/pulumi/pulumi-dotnet/blob/main/sdk/Pulumi.Automation/Serialization/ProjectSettingsModel.cs#L24) while specfication assumets it's [map](https://www.pulumi.com/docs/iac/concepts/projects/project-file/#config-options).
+That cause than when I try to use LocalWorkspace automation it crash on deserialization.
+```
+(Line: 5, Col: 3, Idx: 82) - (Line: 5, Col: 3, Idx: 82): Exception during deserialization
+```
+### Example
+Code that crashes:
+```csharp
+var args = new LocalProgramArgs($"new-stack", pathToProject);
+var stack = await LocalWorkspace.CreateOrSelectStackAsync(args);
+```
+Configuration *Pulumi.yaml*:
+```yaml
+name: MyProject
+runtime: dotnet
+description: Persistence
+config: 
+  pulumi-disable-default-providers:
+  - kubernetes
+  some-setting: dev
+```
+### Output of `pulumi about`
+I'm using NuGet package Pulumi.Automation Version="3.67.1"
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/365</t>
+  </si>
+  <si>
+    <t>Pulumi.LogException during Integration tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+Hi,
+We are doing xUnit integration tests with Pulumi and we often get Pulumi.LogException:
+```
+Pulumi.LogException : Error occurred during logging
+   Error Message:
+    Pulumi.LogException : Error occurred during logging
+ ---- Grpc.Core.RpcException : Status(StatusCode="Unavailable", Detail="Error connecting to subchannel.", DebugException="System.Net.Sockets.SocketException: Connection refused")
+ -------- System.Net.Sockets.SocketException : Connection refused
+   Stack Trace:
+      at Pulumi.Deployment.EngineLogger.LogAsync(LogSeverity severity, String message, Resource resource, Nullable`1 streamId, Nullable`1 ephemeral)
+    at Pulumi.Deployment.Runner.LogExceptionToErrorStream(Exception exception)
+    at Pulumi.Deployment.Runner.HandleExceptionsAsync(IEnumerable`1 exceptions)
+    at Pulumi.Deployment.Runner.WhileRunningAsync()
+    at Pulumi.Deployment.&lt;&gt;c__DisplayClass80_0.&lt;&lt;RunInlineAsync&gt;b__1&gt;d.MoveNext()
+ --- End of stack trace from previous location ---
+    at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+    at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+    at AllegroPay.IaC.Azure.IntegrationTests.EphemeralInfrastructureFixture.InitializeStackAsync[TStack](String module, String projectName, Action`1 configure, Action`1 action) in /_/tests/AllegroPay.IaC.Azure.IntegrationTests/EphemeralInfrastructureFixture.cs:line 86
+    at AllegroPay.IaC.Azure.IntegrationTests.EphemeralInfrastructureFixture.InitializeAsync() in /_/tests/AllegroPay.IaC.Azure.IntegrationTests/EphemeralInfrastructureFixture.cs:line 29
+ ----- Inner Stack Trace -----
+    at Grpc.Net.Client.Balancer.Internal.ConnectionManager.PickAsync(PickContext context, Boolean waitForReady, CancellationToken cancellationToken)
+    at Grpc.Net.Client.Balancer.Internal.BalancerHttpHandler.SendAsync(HttpRequestMessage request, CancellationToken cancellationToken)
+    at Grpc.Net.Client.Internal.GrpcCall`2.RunCall(HttpRequestMessage request, Nullable`1 timeout)
+    at Pulumi.GrpcEngine.LogAsync(LogRequest request)
+    at Pulumi.Deployment.EngineLogger.LogAsync(LogSeverity severity, String message, Resource resource, Nullable`1 streamId, Nullable`1 ephemeral)
+ ----- Inner Stack Trace -----
+    at System.Net.Sockets.Socket.AwaitableSocketAsyncEventArgs.ThrowException(SocketError error, CancellationToken cancellationToken)
+    at System.Net.Sockets.Socket.AwaitableSocketAsyncEventArgs.System.Threading.Tasks.Sources.IValueTaskSource.GetResult(Int16 token)
+    at System.Net.Sockets.Socket.&lt;ConnectAsync&gt;g__WaitForConnectWithCancellation|285_0(AwaitableSocketAsyncEventArgs saea, ValueTask connectTask, CancellationToken cancellationToken)
+    at Grpc.Net.Client.Balancer.Internal.SocketConnectivitySubchannelTransport.TryConnectAsync(ConnectContext context, Int32 attempt)
+```
+All tests fails at once. I suspect that the SDK is sending log requests to the engine which shuts down prematurely. How to print engine logs?
+### Example
+The error is not persistent. It usually happens in CI pipeline. Our tests are set up as follows:
+```
+[Collection(nameof(EphemeralInfrastructureTestCollection))]
+public class EphemeralInfrastructureFixtureTests : StackTestFixture
+{
+    private readonly EphemeralInfrastructureFixture _fixture;
+    public EphemeralInfrastructureFixtureTests(EphemeralInfrastructureFixture fixture, ITestOutputHelper output) : base(output)
+    {
+        _fixture = fixture ?? throw new ArgumentNullException(nameof(fixture));
+        _fixture.StackStatus.ForEach(
+            stack =&gt;
+            {
+                output.WriteLine($"{stack.Key} : {Enum.GetName(typeof(UpdateState), stack.Value)}");
+            });
+        _fixture.StandardOutput.ForEach(
+            stack =&gt;
+            {
+                output.WriteLine($"STDOUT {stack.Key} : {stack.Value}");
+            });
+        _fixture.StandardError.ForEach(
+            stack =&gt;
+            {
+                output.WriteLine($"STDERR {stack.Key} : {stack.Value}");
+            });
+    }
+    [Fact]
+    public void GivenEphemeralNetworkFixture_WhenInitialized_ThenFixtureNameIsNotNull()
+    {
+        // Assert
+        _fixture.Name.Should().NotBeNullOrEmpty();
+        Output.WriteLine($"Fixture: {_fixture.Name} created");
+    }
+}
+```
+and we set up the fixture as:
+```
+    private async Task InitializeStackAsync&lt;TStack&gt;(
+        string module,
+        string? projectName = null,
+        Action&lt;IConfigurationBuilder&gt;? configure = null,
+        Action&lt;IImmutableDictionary&lt;string, OutputValue&gt;&gt;? action = null)
+        where TStack : Stack
+    {
+        var stack = await WorkspaceStackFactory.Create&lt;TStack&gt;(
+            module: module,
+            stackName: Name,
+            projectName: projectName,
+            configure: configure);
+        var result = await stack.UpAsync();
+    }
+```
+where `WorkspaceStackFactory.Create` is:
+```
+        &lt;...&gt;
+        var program = PulumiFn.Create&lt;TStack&gt;(
+            ServiceProviderFactory.Build(
+                cb =&gt;
+                {
+                    configure?.Invoke(cb);
+                }));
+        var inlineProgramArgs = new InlineProgramArgs(
+            projectName: pn,
+            stackName: stackName,
+            program: program)
+        { EnvironmentVariables = Constants.Environment.Concat(envVars ?? new Dictionary&lt;string, string?&gt;()).ToDictionary() };
+        var stack = await LocalWorkspace.CreateStackAsync(inlineProgramArgs);
+        &lt;...&gt;
+```
+### Output of `pulumi about`
+```
+CLI          
+Version      3.112.0
+Go Version   go1.22.1
+Go Compiler  gc
+```
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/340</t>
+  </si>
+  <si>
+    <t>Prevent API and ABI breaking changes before publishing SDKs</t>
+  </si>
+  <si>
+    <t>### Description 
+When we publish a new SDK, we should make sure that the new version doesn't break API and ABI (application binary interface) compatibility with older Pulumi SDKs or existing provider SDKs. This happened in #311 because we introduced an optional argument which was non-breaking in terms of public API but it wasn't binary compatible (broke provider SDKs built with older versions of Pulumi SDK)
+### Resolution
+Before the publishing step, we should check the API and ABI compatibility of the latest published nuget package against the newly created nuget before we actually push to nuget. We could use one of the following tools to help with this:
+ - [Microsoft.DotNet.ApiCompat.Tool](https://learn.microsoft.com/en-us/dotnet/fundamentals/apicompat/global-tool)
+ - [G-Research/ApiSurface](https://github.com/G-Research/ApiSurface)</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/323</t>
+  </si>
+  <si>
+    <t>ImportAsync requires dotnet build to run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+When using the `WorkspaceStack.ImportAsync` Method, it currently requires building a .NET project which may not be available if the running program is an executable. The following error message is returned:
+&lt;details&gt; 
+&lt;summary&gt;Error Message&lt;/summary&gt;
+```
+Importing (SecondStack):
+    pulumi:pulumi:Stack MyProject-SecondStack  running 'dotnet build -nologo .'
+    pulumi:pulumi:Stack MyProject-SecondStack  MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+    pulumi:pulumi:Stack MyProject-SecondStack  MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+    pulumi:pulumi:Stack MyProject-SecondStack  1 message
+Diagnostics:
+  pulumi:pulumi:Stack (MyProject-SecondStack):
+    MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+error: failed to discover plugin requirements: 'dotnet build -nologo .' exited with non-zero exit code: 1
+Unhandled exception. Pulumi.Automation.Commands.Exceptions.CommandException: code: -1
+stdout: Importing (SecondStack):
+    pulumi:pulumi:Stack MyProject-SecondStack  running 'dotnet build -nologo .'
+    pulumi:pulumi:Stack MyProject-SecondStack  MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+    pulumi:pulumi:Stack MyProject-SecondStack  MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+    pulumi:pulumi:Stack MyProject-SecondStack  1 message
+Diagnostics:
+  pulumi:pulumi:Stack (MyProject-SecondStack):
+    MSBUILD : error MSB1003: Specify a project or solution file. The current working directory does not contain a project or solution file.
+stderr: error: failed to discover plugin requirements: 'dotnet build -nologo .' exited with non-zero exit code: 1
+   at Pulumi.Automation.Commands.LocalPulumiCommand.RunAsyncInner(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, EventLogFile eventLogFile, CancellationToken cancellationToken)
+   at Pulumi.Automation.Commands.LocalPulumiCommand.RunAsync(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+   at Pulumi.Automation.Workspace.RunStackCommandAsync(String stackName, IList`1 args, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+   at Pulumi.Automation.WorkspaceStack.RunCommandAsync(IList`1 args, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+```
+&lt;/details&gt;
+The expectation is that it should not need to build the .NET project if it is being executed through the automation API. Speculation from the error message suggests that to import it needs to discover the plugins to use which is obtained by building the project.
+### Example
+Example to re-produce published here - https://github.com/JasonWhall/pulumi-import-bug-sample
+### Output of `pulumi about`
+CLI
+Version      3.129.0
+Go Version   go1.22.6
+Go Compiler  gc
+Host
+OS       Microsoft Windows 10 Enterprise
+Version  10.0.19045 Build 19045
+Arch     x86_64
+Backend
+Name           
+URL            file://~
+User           
+Organizations
+Token type     personal
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/287</t>
+  </si>
+  <si>
+    <t>Support multiple .NET Framework versions in templates</t>
+  </si>
+  <si>
+    <t>Our .NET support makes it easy for users to hit failures that it'd be nice if were able to handle better.
+One common situation happens when a new version of .NET is released. .NET 8 was recently released for example, but our templates are still written to target .NET 6. When I run `pulumi new` and `pulumi up` with .NET 6 and 8 installed, things go fine, because I have .NET 6. But when I run those commands with only .NET 8, `new` succeeds, but `up` fails:
+```
+➜ dotnet --list-sdks
+8.0.302 [/usr/local/share/dotnet/sdk]
+➜ dotnet --list-runtimes
+Microsoft.AspNetCore.App 8.0.6 [/usr/local/share/dotnet/shared/Microsoft.AspNetCore.App]
+Microsoft.NETCore.App 8.0.6 [/usr/local/share/dotnet/shared/Microsoft.NETCore.App]
+➜ pulumi new csharp --yes
+...
+Your new project is ready to go! ✨
+To perform an initial deployment, run `pulumi up`
+➜ pulumi up
+...
+Diagnostics:
+  pulumi:pulumi:Stack (tmp.EDWma9Ydg2-dev):
+    You must install or update .NET to run this application.
+    App: /private/var/folders/cw/39tll6xs0hsdj1hvh85m0gn00000gn/T/tmp.EDWma9Ydg2/bin/Debug/net6.0/tmp.EDWma9Ydg2
+    Architecture: arm64
+    Framework: 'Microsoft.NETCore.App', version '6.0.0' (arm64)
+    .NET location: /usr/local/share/dotnet
+    The following frameworks were found:
+      8.0.6 at [/usr/local/share/dotnet/shared/Microsoft.NETCore.App]
+    Learn more:
+    https://aka.ms/dotnet/app-launch-failed
+    To install missing framework, download:
+    https://aka.ms/dotnet-core-applaunch?framework=Microsoft.NETCore.App&amp;framework_version=6.0.0&amp;arch=arm64&amp;rid=osx-arm64&amp;os=osx.14
+    error: an unhandled error occurred: Program exited with non-zero exit code: 150
+```
+This is understandable because I don't have .NET 6 installed, and the .NET project file specifies `&lt;TargetFramework&gt;net6.0&lt;/TargetFramework&gt;` explicitly. However when I update the C# project template to support both .NET 6 and 8 (using `&lt;TargetFrameworks&gt;net6.0;net8.0&lt;/TargetFrameworks&gt;`), I get a different error on `pulumi up`:
+```
+Diagnostics:
+  pulumi:pulumi:Stack (tmp.EDWma9Ydg2-dev):
+    Unable to run your project
+    Your project targets multiple frameworks. Specify which framework to run using '--framework'.
+    error: an unhandled error occurred: Program exited with non-zero exit code: 1
+```
+To prevent users from hitting this error when a new version .NET is released, and to allow us to test against all of the frameworks we purportedly support (which will ~always be multiple), we should consider running Pulumi in a way lets us determine whether any of the user's installed frameworks satisfy the `TargetFramework(s)` requirement, and if so, target that framework.
+[See the conversation here](https://docs.google.com/document/d/12ZHJZNyAJS-2RRV84I0cAdaRgcuVJQ6q8hKsHjax4bw/edit?disco=AAABPWjyb9c) for additional context/discussion.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/244</t>
+  </si>
+  <si>
+    <t>Automation API support for `pulumi-refresh --preview-only`</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+Now that the CLI supports the `preview-only` flag for `pulumi refresh` (https://github.com/pulumi/pulumi/pull/15330), it would be great to have that available for the .NET Automation API. I was going to take a stab at this myself as it should be relatively straightforward, however looking into the code, the `--skip-preview` flag is hardcoded into the args: https://github.com/pulumi/pulumi-dotnet/blob/d0039a8809f5ff4ac007c02ac694594d6a26d6f7/sdk/Pulumi.Automation/WorkspaceStack.cs#L547
+I thought it best to open a discussion on how we expect this to work. 
+To give a bit of background: we currently use the Automation API to create/manage some of our microstacks, but we are unsure on the best workflow for incorporating `pulumi refresh` into this. By it's nature, the Automation API isn't always going to prompt for manual approval, hence the `--skip-preview` flag I presume, but we want to be able to manage state drift between Pulumi and our Cloud Provider (Azure).
+Now, there are certain state differences, especially in Azure, that we are happy to apply (timestamp changes to modified dates etc), but others we don't want to auto apply and at least prompt users/tooling that there has been drift. My initial thoughts were that this would be possible with the `RefreshAsync` method and the `ExpectNoChanges` flag, but with the presence of the `--skip-preview` flag, the changes **do get applied**, and _then_ Pulumi throws a `CommandException`, which is obviously too late to do anything about as the state as been updated.
+I'd be interested to hear what is the recommended workflow for state drift/applying refreshes. Is this something that we should always just be doing, no questions asked, say before or after an update? Should we always run a refresh pre-update and abort on any changes, or at least get a set of eyes on the proposed changes first? Does it make sense to run refreshes out of process, say on a schedule? It's hard to find a recommended approach for this, especially when dealing with the Automation API.
+### Affected area/feature
+Automation API</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/229</t>
+  </si>
+  <si>
+    <t>Add the ability to delete all resources from state using the Automation-API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+It would be nice to have a DeleteAllAsync version of of the [DeleteAsync](https://www.pulumi.com/docs/reference/pkg/dotnet/Pulumi.Automation/Pulumi.Automation.WorkspaceStackState.html#Pulumi_Automation_WorkspaceStackState_DeleteAsync_System_String_System_Boolean_System_Threading_CancellationToken_) method.
+### Affected area/feature
+Automation API
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/204</t>
+  </si>
+  <si>
+    <t>CollectionBuilder .NET 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+.NET 8 added support for [collection expression](https://learn.microsoft.com/en-us/dotnet/csharp/language-reference/operators/collection-expressions) and also added an annotation [`CollectionBuilder`](https://learn.microsoft.com/en-us/dotnet/csharp/language-reference/operators/collection-expressions#collection-builder) I think there are many places the Pulumi .NET code could use these to improve code syntax :)
+Especially for things like GetPolicyDocuments and Statements in AWS 🤔
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/203</t>
+  </si>
+  <si>
+    <t>Make `Pulumi.RunException` assertable</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+Currently when writing Unit tests for a stack that does `Pulumi.Log.Error("")`. The resulting stack will throw a `Pulumi.RunException` in the deployment runner. As this is an internal only type currently, we are unable to assert to check this error has been thrown. The workaround currently is to assert on the `Exception` type, but isn't accurate to the type of exception thrown. Below shows an example of a test that would check for this:
+```csharp
+using FluentAssertions;
+using NSubstitute;
+using Pulumi;
+using Pulumi.Testing;
+public class UnitTest1
+{
+    [Fact]
+    public async Task Stack_LoggingError_ShouldThrowExpectedException()
+    {
+        // Arrange
+        var mocks = Substitute.For&lt;IMocks&gt;();
+        var options = new TestOptions { IsPreview = false };
+        static void act()
+        {
+            Log.Error("Message 1");
+        };
+        var sut = () =&gt; Deployment.TestAsync(mocks, options, act);
+        // Act &amp; Assert
+        await sut.Should().ThrowAsync&lt;Exception&gt;()
+            .WithMessage("Message 1");
+        // Desired
+        /*
+            await sut.Should().ThrowAsync&lt;Pulumi.RunException&gt;()
+                .WithMessage("Message 1");
+        */
+    }
+}
+```
+Could the `RunException` be made public so we can assert on this? 
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+Pulumi Core</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/202</t>
+  </si>
+  <si>
+    <t>No way to register stack level transformations using a top-level async program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+see title
+### Example
+https://www.pulumi.com/docs/concepts/options/transformations/#stack-transformations
+no way to do the above with a top-level async program such as
+```
+using System.Collections.Generic;
+using Pulumi;
+return await Deployment.RunAsync(() =&gt;
+{
+   // no way to register stack transformations with this type
+   // Export outputs here
+   return new Dictionary&lt;string, object?&gt;
+   {
+      ["outputKey"] = "outputValue"
+   };
+});
+```
+### Output of `pulumi about`
+n/a
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/179</t>
+  </si>
+  <si>
+    <t>Support explicit providers for packaged components</t>
+  </si>
+  <si>
+    <t>The Node.js and Python SDKs previously lacked support for specifying an explicit provider for a packaged component. That was resolved with https://github.com/pulumi/pulumi/pull/13282.
+Does .NET have the same limitation?
+Reference: https://github.com/pulumi/pulumi/issues/11520</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/177</t>
+  </si>
+  <si>
+    <t>Run matrix tests</t>
+  </si>
+  <si>
+    <t>pu/pu has the concept of matrix tests (https://github.com/pulumi/pulumi/pull/13705) we should update this repo to run those tests for dotnet.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/170</t>
+  </si>
+  <si>
+    <t>Support returning plain values from .NET methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+As a provider author I would like to be able to mark methods as plain: true so that my provider's consumers can access their results directly without an Output wrapper. 
+Further, methods that return a single value only should not be wrapped in a struct, making it as simple as possible to consume. 
+Methods should be able to return explicit Provider references usable for configuring other resources in the stack, so that methods can be used as factories to simplify complex provider configuration.
+Here is a PR implementing plain-valued methods for Node, Python, Go that includes acceptance tests for this feature:
+https://github.com/pulumi/pulumi/pull/13592
+Borrowing from that PR, the new schema forms is listed below; "tlsProvider" returns a singleton provider reference, "meaningOfLife" returns a singleton integer, and "objectMix" returns both in a struct.
+```json
+  "functions": {
+    "metaprovider:index:Configurer/tlsProvider": {
+      "inputs": {
+        "properties": {
+          "__self__": {
+            "$ref": "#/resources/metaprovider:index:Configurer"
+          }
+        }
+      },
+      "outputs": {
+        "$ref": "/tls/v4.10.0/schema.json#/provider",
+        "plain": true
+      }
+    },
+    "metaprovider:index:Configurer/meaningOfLife": {
+      "inputs": {
+        "properties": {
+          "__self__": {
+            "$ref": "#/resources/metaprovider:index:Configurer"
+          }
+        }
+      },
+      "outputs": {
+        "type": "integer",
+        "plain": true
+      }
+    },
+    "metaprovider:index:Configurer/objectMix": {
+      "inputs": {
+        "properties": {
+          "__self__": {
+            "$ref": "#/resources/metaprovider:index:Configurer"
+          }
+        }
+      },
+      "outputs": {
+        "type": "object",
+        "plain": true,
+        "properties": {
+          "provider": {
+            "$ref": "/tls/v4.10.0/schema.json#/provider"
+          },
+          "meaningOfLife": {
+            "type": "integer"
+          }
+        }
+      }
+    }
+  },
+```
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/171</t>
+  </si>
+  <si>
+    <t>Resource properties named `id` are ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+Regardless of the id format, and even though it matches the regular expression on the error, the resource creation always returns the following error.
+```
+*error: azure-native:apimanagement:PolicyFragment resource has a problem: 'id' does not match expression '(^[\w]+$)|(^[\w][\w\-]+[\w]$)'*
+```
+The error showed initially using v1.104.0 of the Pulumi.AzureNative library. Upgrading the library to v2.3.0 did not resolve the error.
+### Expected Behavior
+The PolicyFragment resource is created.
+### Steps to reproduce
+Create a PolicyFragment resource using C# as explained in the documentation here:
+https://www.pulumi.com/registry/packages/azure-native/api-docs/apimanagement/policyfragment/#azure-native-apimanagement-policyfragment
+Not even the provided sample passes the id validation:
+```
+using System.Collections.Generic;
+using System.Linq;
+using Pulumi;
+using AzureNative = Pulumi.AzureNative;
+return await Deployment.RunAsync(() =&gt; 
+{
+    var policyFragment = new AzureNative.ApiManagement.PolicyFragment("policyFragment", new()
+    {
+        Description = "A policy fragment example",
+        Format = "xml",
+        Id = "policyFragment1",
+        ResourceGroupName = "rg1",
+        ServiceName = "apimService1",
+        Value = "&lt;fragment&gt;&lt;json-to-xml apply=\"always\" consider-accept-header=\"false\" /&gt;&lt;/fragment&gt;",
+    });
+});
+```
+### Output of `pulumi about`
+CLI
+Version      3.78.1
+Go Version   go1.20.7
+Go Compiler  gc
+Plugins
+NAME    VERSION
+dotnet  unknown
+Host
+OS       Microsoft Windows 10 Enterprise
+Version  10.0.19044 Build 19044
+Arch     x86_64
+This project is written in dotnet: executable='C:\Program Files\dotnet\dotnet.exe' version='7.0.304'
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/162</t>
+  </si>
+  <si>
+    <t>Add coverage data to codecov</t>
+  </si>
+  <si>
+    <t>- [x] Unit test coverage of SDK (https://github.com/pulumi/pulumi-dotnet/pull/175)
+- [ ] Language host coverage (blocked on https://github.com/pulumi/pulumi/issues/9780) -- This needs a large overhaul to make kill logic work, put on hold</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/152</t>
+  </si>
+  <si>
+    <t>Allow fallback for Pulumi.Log when used outside a Pulumi run</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+Our Pulumi C# code contains a number of helper classes, for example one that calculates IP CIDR Ranges. These have unit tests independent of Pulumi, and need to do some logging. The nice thing to do would be to use `Pulumi.Log` in the code, however this fails during execution outside of a Pulumi stack.
+```
+System.InvalidOperationException
+Trying to acquire Deployment.Instance before 'Run' was called.
+```
+As far as I can tell, there is no way to tell whether or not Pulumi is running or not so it's hard to even fall back to Console. The 'proper' answer may be to start injecting `ILogger` with some kind of dynamic configuration, but this feels a little bit like overkill when it would be nice to just he Pulumi.Log everywhere but have it behave itself when called outside of Pulumi run.
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+Logging.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/151</t>
+  </si>
+  <si>
+    <t>Support the "release" configuration when using dotnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+In the CLI with the dotnet sdk, when running `pulumi up` or another command, a `dotnet build` command is executed. 
+It’s always being built in debug mode (the default configuration). 
+It would be preferred to be able to run the `dotnet build` with the release configuration.
+### Affected area/feature
+&lt;!-- If you know the specific area where this feature request would go (e.g. Automation API, the Pulumi Service, the Terraform bridge, etc.), feel free to put that area here.  --&gt;
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/140</t>
+  </si>
+  <si>
+    <t>Unit Test Hangs When Retrieving Undefined Service Metadata Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+My unit test hangs (deadlock?) when attempting to retrieve a service's metadata name, which happens to be undefined.
+### Expected Behavior
+Accessing an undefined value should return a default value or throw an error.
+### Steps to reproduce
+[See gist](https://gist.github.com/Heteroculturalism/c333b281fc8b3c7c3b3b5e3f46e962bc)
+### Output of `pulumi about`
+CLI
+Version      3.66.0
+Go Version   go1.20.3
+Go Compiler  gc
+Host
+OS       Microsoft Windows 10 Pro
+Version  10.0.19045 Build 19045
+Arch     x86_64
+Backend
+Name           pulumi.com
+URL            https://app.pulumi.com/Afford2945
+User           Afford2945
+Organizations  Afford2945, RivalCoins
+Pulumi locates its logs in C:\Users\Jerome\AppData\Local\Temp by default
+warning: Failed to read project: no Pulumi.yaml project file found (searching upwards from C:\Users\Jerome). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: Failed to get information about the current stack: no Pulumi.yaml project file found (searching upwards from C:\Users\Jerome). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: A new version of Pulumi is available. To upgrade from version '3.66.0' to '3.68.0', visit https://pulumi.com/docs/reference/install/ for manual instructions and release notes.
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/137</t>
+  </si>
+  <si>
+    <t>Add ability to test CustomResourceOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+Currently when running `TestWithServiceProviderAsync` it isn't possible to test the [CustomResourceOptions](https://github.com/pulumi/pulumi-dotnet/blob/41e730c34ca4f9af1f879d52a112adefeae960fb/sdk/Pulumi/Resources/CustomResourceOptions.cs) of a provisioned resource. You can only access the properties of the resource object itself. It would be great to be able to test the `Protected` value of a resource as well as any `AdditionalSecretOutputs`.
+We have cases where protection of a resource is contingent on a piece of logic, this would be great to add to our unit testing.
+### Affected area/feature
+Pulumi dotnet
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/136</t>
+  </si>
+  <si>
+    <t>Support the `--exclude-protected` flag for destroy in Automation API</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/134</t>
+  </si>
+  <si>
+    <t>Erroneous behaviour when cancelling a program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+When running a pulumi program, especially with automation API, sending a single `Ctrl+C` to the execution hangs the program indefinitely
+### Expected Behavior
+When sending a Ctrl+C to a Pulumi invocation, I'd expect the program to try and gracefully shut down and terminate
+### Steps to reproduce
+Customer sent the following program that exhibits this behaviour
+```csharp
+using System;
+using System.Collections.Generic;
+using System.ComponentModel.DataAnnotations;
+using System.Threading;
+using System.Threading.Tasks;
+using McMaster.Extensions.CommandLineUtils;
+using Pulumi;
+using Pulumi.Automation;
+using Pulumi.Aws;
+using Pulumi.Aws.S3;
+namespace Snap;
+[Command("pulumi", Description = "Deploy Pulumi stack")]
+public class DeployPulumiCommand
+{
+    [Required]
+    [Option("--project-name",
+        "Pulumi project name",
+        CommandOptionType.SingleValue,
+        ShowInHelpText = true)]
+    private string ProjectName { get; set; }
+    public async Task&lt;int&gt; OnExecuteAsync(CancellationToken cancellationToken)
+    {
+        PulumiFn program = PulumiFn.Create(async () =&gt;
+        {
+            var region = "us-west-2";
+            var provider = new Provider(region, new()
+            {
+                Region = region,
+            });
+            var bucket = new Bucket("some-bucket", BucketArgs.Empty, new CustomResourceOptions { Provider = provider });
+        });
+        return await UpdatePulumiAsync(program, ProjectName, "test-stack", cancellationToken);
+    }
+    private static async Task&lt;int&gt; UpdatePulumiAsync(PulumiFn program, string projectName, string stackName, CancellationToken cancellationToken)
+    {
+        var stack = await SetupAsync(projectName, stackName, program, cancellationToken);
+        Console.WriteLine("updating stack...");
+        var result = await stack.UpAsync(new UpOptions
+        {
+            OnStandardOutput = Console.WriteLine,
+            Parallel = Int32.MaxValue,
+            Color = "always",
+        }, cancellationToken);
+        if (result.Summary.ResourceChanges != null)
+        {
+            Console.WriteLine("update summary:");
+            foreach (var change in result.Summary.ResourceChanges)
+                Console.WriteLine($"    {change.Key}: {change.Value}");
+        }
+        return 0;
+    }
+    private static async Task&lt;WorkspaceStack&gt; SetupAsync(string projectName, string stackName, PulumiFn program, CancellationToken cancellationToken)
+    {
+        var stackArgs = new InlineProgramArgs(projectName, stackName, program);
+        var plugins = new Dictionary&lt;string, string&gt;
+        {
+            { "aws", "v4.24.1" },
+        };
+        var config = new Dictionary&lt;string, ConfigValue&gt;
+        {
+            { "aws:region", new ConfigValue("us-west-2") },
+            { "aws-native:region", new ConfigValue("us-west-2") },
+        };
+        var stack = await LocalWorkspace.CreateOrSelectStackAsync(stackArgs, cancellationToken);
+        Console.WriteLine("successfully initialized stack");
+        Console.WriteLine("installing plugins...");
+        foreach (var kvp in plugins)
+        {
+            await stack.Workspace.InstallPluginAsync(kvp.Key, kvp.Value, cancellationToken: cancellationToken);
+        }
+        Console.WriteLine("plugins installed");
+        Console.WriteLine("setting up config...");
+        foreach (var kvp in config)
+        {
+            await stack.SetConfigAsync(kvp.Key, kvp.Value, cancellationToken: cancellationToken);
+        }
+        Console.WriteLine("config set");
+        Console.WriteLine("refreshing stack...");
+        await stack.RefreshAsync(new RefreshOptions { OnStandardOutput = Console.WriteLine }, cancellationToken);
+        Console.WriteLine("refresh complete");
+        return stack;
+    }
+}
+```
+### Output of `pulumi about`
+N/A
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/133</t>
+  </si>
+  <si>
+    <t>Consider setting PULUMI_SKIP_UPDATE_CHECK internally for Automation API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+I'm using the pulumi dotnet automation API to deploy infrastructure on demand. I'm using the callbacks `OnStandardOutput` and `OnStandardError` on the `UpAsync` method:
+```cs
+await stack.UpAsync(new UpOptions
+{
+	OnStandardError = error =&gt; Logger.Warning("Pulumi up error on VirtualMachineId {VirtualMachineId} Error: {Error}", vm.Id, error),
+	OnStandardOutput = msg =&gt; Logger.Debug("Pulumi up output on VirtualMachineId {VirtualMachineId} Message: {Message}", vm.Id, msg)
+}, token);
+```
+I'm getting output on the `OnStandardError` when pulumi is outdated:
+```
+[10:11:39 WRN] Pulumi up error on VirtualMachineId 6f5cecf3-40e5-464e-92f0-5befd240f584 Error: warning: A new version of Pulumi is available. To upgrade from version '3.60.0' to '3.61.0', run  =&gt; Application.CloudRendering.CloudProvider
+[10:11:39 WRN] Pulumi up error on VirtualMachineId 6f5cecf3-40e5-464e-92f0-5befd240f584 Error:    $ brew update &amp;&amp; brew upgrade pulumi =&gt; Application.CloudRendering.CloudProvider
+[10:11:39 WRN] Pulumi up error on VirtualMachineId 6f5cecf3-40e5-464e-92f0-5befd240f584 Error: or visit https://pulumi.com/docs/reference/install/ for manual instructions and release notes. =&gt; Application.CloudRendering.CloudProvider
+```
+### Expected Behavior
+Add option to suppress update warnings or send them on stdout instead of stderr as it is not an error.
+### Steps to reproduce
+Use the snipped above, add a stack and adjust logging.
+### Output of `pulumi about`
+CLI
+Version      3.60.0
+Go Version   go1.20.2
+Go Compiler  gc
+Host
+OS       darwin
+Version  13.3
+Arch     arm64
+Backend
+Name           pulumi.com
+URL            xxx
+User           xxx
+Organizations  xxx
+Pulumi locates its logs in xxx by default
+warning: Failed to read project: no Pulumi.yaml project file found (searching upwards from xxx). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: Failed to get information about the current stack: no Pulumi.yaml project file found (searching upwards from xxx). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: A new version of Pulumi is available. To upgrade from version '3.60.0' to '3.61.0', run
+   $ brew update &amp;&amp; brew upgrade pulumi
+or visit https://pulumi.com/docs/reference/install/ for manual instructions and release notes.
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/126</t>
+  </si>
+  <si>
+    <t>Pulumi Automation API throws Grpc.Core.RpcException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+I have a ASP.net core 7 project that uses the inline Pulumi automation API.
+Example:
+```cs
+var stack = await GetStackAsync(vm, cancellationToken);
+await stack.CancelAsync(token);
+await stack.RefreshAsync(cancellationToken: token);
+await stack.UpAsync(cancellationToken: token);
+```
+I use Sentry as Error tracking system. I'm getting a log of errors (16k in the last 24h) that I only partially understand. They seem benign.
+```
+Grpc.Core.RpcException: Status(StatusCode="Unavailable", Detail="Error starting gRPC call. HttpRequestException: Connection refused (127.0.0.1:37649) SocketException: Connection refused", DebugException="System.Net.Http.HttpRequestException: Connection refused (127.0.0.1:37649)
+ ---&gt; System.Net.Sockets.SocketException (111): Connection refused
+   at System.Net.Sockets.Socket.AwaitableSocketAsyncEventArgs.ThrowException(SocketError error, CancellationToken cancellationToken)
+   at System.Net.Sockets.Socket.AwaitableSocketAsyncEventArgs.System.Threading.Tasks.Sources.IValueTaskSource.GetResult(Int16 token)
+   at System.Net.Sockets.Socket.&lt;ConnectAsync&gt;g__WaitForConnectWithCancellation|281_0(AwaitableSocketAsyncEventArgs saea, ValueTask connectTask, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.ConnectToTcpHostAsync(String host, Int32 port, HttpRequestMessage initialRequest, Boolean async, CancellationToken cancellationToken)
+   --- End of inner exception stack trace ---
+   at System.Net.Http.HttpConnectionPool.ConnectToTcpHostAsync(String host, Int32 port, HttpRequestMessage initialRequest, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.ConnectAsync(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.AddHttp2ConnectionAsync(QueueItem queueItem)
+   at System.Threading.Tasks.TaskCompletionSourceWithCancellation`1.WaitWithCancellationAsync(CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.HttpConnectionWaiter`1.WaitForConnectionAsync(Boolean async, CancellationToken requestCancellationToken)
+   at System.Net.Http.HttpConnectionPool.SendWithVersionDetectionAndRetryAsync(HttpRequestMessage request, Boolean async, Boolean doRequestAuth, CancellationToken cancellationToken)
+   at System.Net.Http.RedirectHandler.SendAsync(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at Grpc.Net.Client.Internal.GrpcCall`2.RunCall(HttpRequestMessage request, Nullable`1 timeout)")
+  ?, in async Task GrpcEngine.LogAsync(LogRequest request)
+  ?, in async Task EngineLogger.LogAsync(LogSeverity severity, string message, Resource resource, int? streamId, bool? ephemeral)
+```
+The errors are not shown in the console and they are also not caught in a try catch block. My understanding is that in https://github.com/pulumi/pulumi-dotnet/blob/26c4b096087f2cc66981139a18e7239538b9ee3b/sdk/Pulumi.Automation/WorkspaceStack.cs#L676-L779 you create a GRPC host which lets the go runtime connect to the c# runtime. Is my assumption correct? Then when the Pulumi `UpAsync` has completed the server is destroyed before the client which generates this exception.
+### Expected Behavior
+Error is not generated if Pulumi `UpAsync` completed successfully.
+### Steps to reproduce
+Create a `LocalWorkspace` and then execute `UpAsync`
+```cs
+var stackArgs = new InlineProgramArgs("instance", stackId, program);
+stackArgs.ProjectSettings!.Backend = new ProjectBackend
+{
+	Url = "backend"
+};
+var stack = await LocalWorkspace.CreateOrSelectStackAsync(stackArgs, cancellationToken);
+```
+Catching the error is the tricky part. I can only see it being caught in Sentry. Maybe there is a different API one can consume to catch those unhandled exceptions.
+### Output of `pulumi about`
+```
+pulumi about
+CLI
+Version      3.60.0
+Go Version   go1.20.2
+Go Compiler  gc
+Host
+OS       darwin
+Version  13.3
+Arch     arm64
+Backend
+Name           pulumi.com
+URL            https://app.pulumi.com/xxx
+User           klyse
+Organizations  xxx
+Pulumi locates its logs in xxx by default
+warning: Failed to read project: no Pulumi.yaml project file found (searching upwards from xxx). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: Failed to get information about the current stack: no Pulumi.yaml project file found (searching upwards from xxx). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: A new version of Pulumi is available. To upgrade from version '3.60.0' to '3.61.0', run
+   $ brew update &amp;&amp; brew upgrade pulumi
+or visit https://pulumi.com/docs/reference/install/ for manual instructions and release notes.
+```
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/124</t>
+  </si>
+  <si>
+    <t>Pulumi Inline Automation API process exits immediately when hitting ctrl+c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+I have a C# pulumi project that creates cloud infrastructure. I'm using the Pulumi InlineProgram automation API to do that.
+When hitting `CTRL+C` the pulumi automation process exits immediately instead of waiting for the provided cancellation token to be canceled. This means Pulumi exits without saving the state correctly and this creates issues when retrying in a later moment. Example issue:
+`Pulumi up output on VirtualMachineId xxx Message: " Note that pulumi refresh will need to be run interactively to clear pending CREATE operations."`
+Whenever the app receives `SIGTERM` my state is broken and I need to interact manually. That's okay when I use the pulumi CLI but not when I use the Automation API.
+### Expected Behavior
+Pulumi child process stays alive until the `CancellationToken` is cancelled.
+### Steps to reproduce
+Example of the up function:
+```cs
+var token = new CancellationTokenSource().Token;
+await stack.UpAsync(new UpOptions
+{
+    OnStandardError = error =&gt; Logger.Warning("Pulumi up error on VirtualMachineId {VirtualMachineId} Error: {Error}", vm.Id, error),
+    OnStandardOutput = msg =&gt; Logger.Debug("Pulumi up output on VirtualMachineId {VirtualMachineId} Message: {Message}", vm.Id, msg)
+}, token);
+```
+Then hit `CTRL+C` during the up command
+### Output of `pulumi about`
+CLI
+Version      3.60.0
+Go Version   go1.20.2
+Go Compiler  gc
+Host
+OS       darwin
+Version  13.2.1
+Arch     arm64
+Backend
+Name           pulumi.com
+URL            xxx
+User           xxx
+Organizations  xxx, xxx
+Pulumi locates its logs in xxx by default
+warning: Failed to read project: no Pulumi.yaml project file found (searching upwards from xxx). If you have not created a project yet, use `pulumi new` to do so: no project file found
+warning: Failed to get information about the current stack: no Pulumi.yaml project file found (searching upwards from /Users/klaus). If you have not created a project yet, use `pulumi new` to do so: no project file found
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/122</t>
+  </si>
+  <si>
+    <t>Setting both Parent and DependsOn to the same component causes hang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following program hangs:
+```csharp
+using System.Collections.Generic;
+using Pulumi;
+return await Deployment.RunAsync(() =&gt;
+{
+   var parent = new ComponentResource("pkg:index:first", "first");
+   var child = new ComponentResource(
+      "pkg:index:second",
+      "second",
+      new ComponentResourceOptions
+      {
+         Parent = parent,
+         DependsOn = new[]{ parent},
+      }
+   );
+   // This would freeze before the fix.
+   var custom = new CustomResource(
+      "foo:bar:baz",
+      "myresource",
+      ResourceArgs.Empty,
+      new CustomResourceOptions
+      {
+         Parent = child,
+      }
+   );
+   // Export outputs here
+   return new Dictionary&lt;string, object?&gt;
+   {
+      ["outputKey"] = "outputValue"
+   };
+});
+```
+More details in https://github.com/pulumi/pulumi/issues/12032
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/102</t>
+  </si>
+  <si>
+    <t>Expand test stack with service providers to allow output testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+There are currently overload test functions defined that allow you to test the outputs of a mock pulumi stack during unit testing, however there is no support for this of stack output testing when using a service provider.
+The `TestWithServiceProviderAsync` doesn't offer any overloads that expose the outputs from a stack. Link [here](https://github.com/pulumi/pulumi-dotnet/blob/b55094b718b4cbd884b69d8df81dbe1747607923/sdk/Pulumi/Deployment/Deployment_Run.cs#L150).
+But there are examples of the `TestAsync` function that do exactly this. Link [here](https://github.com/pulumi/pulumi-dotnet/blob/b55094b718b4cbd884b69d8df81dbe1747607923/sdk/Pulumi/Deployment/Deployment_Run.cs#L209).
+Ideally the `TestWithServiceProviderAsync` function would have an expanded overload to support a return type with `Task&lt;(ImmutableArray&lt;Resource&gt; Resources, IDictionary&lt;string, object?&gt; Outputs)`
+### Affected area/feature
+dotnet SDK testing
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/79</t>
+  </si>
+  <si>
+    <t>[sdk/dotnet] Cloudflare record creation throws `NullReferenceException`</t>
+  </si>
+  <si>
+    <t>### What happened?
+Hello,
+This particular behavior occurs only when setting a Cloudflare record with a value from DigitalOcean reserved ip output.
+### Steps to reproduce
+1. Create a DigitalOcean droplet
+2. Create a DigitalOcean reserved IP and attach the droplet to it
+3. Create a Cloudflare record using the reserved IP
+``` csharp
+var Droplet = new DigitalOcean.Droplet(name, new DigitalOcean.DropletArgs
+{
+    Name = name,
+    Image = image,
+    Region = region,
+    Size = size,
+    GracefulShutdown = true,
+    DropletAgent = false,
+    SshKeys = { sshKey.Fingerprint },
+    VpcUuid = vpc.Id,
+    Tags = tags,
+    UserData = userData
+});
+// Reserved IP
+var ReservedIp = new DigitalOcean.ReservedIp("reserved-ip", new DigitalOcean.ReservedIpArgs
+{
+    Region = Droplet.Region,
+    DropletId = Droplet.Id.Apply(int.Parse)
+});
+var Zone = Output.Create(Cloudflare.GetZone.InvokeAsync(new Cloudflare.GetZoneArgs
+{
+    Name = "mydomain.com"
+}));
+var ApiRecord = new Cloudflare.Record("api-record", new Cloudflare.RecordArgs
+{
+    Name = "api",
+    ZoneId = Zone.Apply(x =&gt; x.Id),
+    Type = "A",
+    Value = ReservedIp.IpAddress,
+    Ttl = 3600,
+    AllowOverwrite = true
+});
+```
+Changing the value of the record to `Droplet.Ipv4Address` solves the problem.
+### Expected Behavior
+Create the Cloudflare record with the reserved ip output.
+### Actual Behavior
+An exception is thrown. Sometimes the `pulumi up` command hangs (see screenshot below) for 3 to 5 minutes before throwing the error.
+![image](https://user-images.githubusercontent.com/1000991/213114393-22ee9628-6e12-459e-af76-1e1a25b26ea8.png)
+### Exception Thrown
+```
+Diagnostics:
+  pulumi:pulumi:Stack (octopush-production):
+    error: Running program 'D:\Projects\GitHub\OctoPush-Infrastructure\src\Cloud\bin\Debug\net6.0\Cloud.dll' failed with an unhandled exception:
+    System.NullReferenceException: Object reference not set to an instance of an object.
+       at Task&lt;HashSet&lt;string&gt;&gt; Pulumi.Deployment.GetAllTransitivelyReferencedResourceUrnsAsync(HashSet&lt;Resource&gt; resources)+(Resource r) =&gt; { }
+       at bool System.Linq.Enumerable+WhereSelectEnumerableIterator&lt;TSource, TResult&gt;.MoveNext()
+       at Task&lt;TResult[]&gt; System.Threading.Tasks.Task.WhenAll&lt;TResult&gt;(IEnumerable&lt;Task&lt;TResult&gt;&gt; tasks)
+       at async Task&lt;HashSet&lt;string&gt;&gt; Pulumi.Deployment.GetAllTransitivelyReferencedResourceUrnsAsync(HashSet&lt;Resource&gt; resources)
+       at async Task&lt;PrepareResult&gt; Pulumi.Deployment.PrepareResourceAsync(string label, Resource res, bool custom, bool remote, ResourceArgs args, ResourceOptions options)
+       at async Task&lt;(string urn, string id, Struct data, ImmutableDictionary&lt;string, ImmutableHashSet&lt;Resource&gt;&gt; dependencies)&gt; Pulumi.Deployment.RegisterResourceAsync(Resource resource, bool remote, Func&lt;string, Resource&gt; newDependency, ResourceArgs args, ResourceOptions options)
+       at async Task&lt;(string urn, string id, Struct data, ImmutableDictionary&lt;string, ImmutableHashSet&lt;Resource&gt;&gt; dependencies)&gt; Pulumi.Deployment.ReadOrRegisterResourceAsync(Resource resource, bool remote, Func&lt;string, Resource&gt; newDependency, ResourceArgs args, ResourceOptions options)
+       at async Task Pulumi.Deployment.CompleteResourceAsync(Resource resource, bool remote, Func&lt;string, Resource&gt; newDependency, ResourceArgs args, ResourceOptions options, ImmutableDictionary&lt;string, IOutputCompletionSource&gt; completionSources)
+```
+### Output of `pulumi about`
+```
+CLI
+Version      3.51.1
+Go Version   go1.19.4
+Go Compiler  gc
+Plugins
+NAME          VERSION
+azure-native  1.92.0
+cloudflare    4.15.0
+digitalocean  4.16.0
+dotnet        unknown
+Host
+OS       Microsoft Windows 11 Enterprise
+Version  10.0.22000 Build 22000
+Arch     x86_64
+This project is written in dotnet: executable='C:\Program Files\dotnet\dotnet.exe' version='7.0.102'
+```
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already).</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/232</t>
+  </si>
+  <si>
+    <t>Running Pulumi commands results in VS 2022 loosing references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+I have found that when using Visual Studion 2022 (full fat VS, not VS code) for writing Pulumi C# code that when you use the Pulumi CLI to run commands like up and preview, it all works fine but when you return to VS it has lost all references to the Pulumi nuget packages and everything is underlined red. Running a build from inside VS resolves the issue until the next time you run a command. 
+Not a huge issue, but annoying!
+### Steps to reproduce
+- Open a Pulumi project in Visual Studio 2022. I am using the Enterprise edition but I would assume it doesn't matter. I am also using the 64bit version.
+- Once open, go to the Pulumi CLI and run an Up or Preview command and wait for it to complete
+-  Return to VS, and see that all code is underlined red and unable to find references
+- Run a build in VS and the errors will go away
+### Expected Behavior
+For the code in VS to display the same amount of errors before and after running a Pulumi command
+### Actual Behavior
+VS looses references to nuget packages and shows errors for all Pulumi code after running Pulumi commands
+### Output of `pulumi about`
+CLI
+Version      3.45.0
+Go Version   go1.19.2
+Go Compiler  gc
+Host
+OS       debian
+Version  11.3
+Arch     x86_64
+Backend
+Name           PCM-5669BL3
+URL            file://~
+User           sam
+Organizations
+Pulumi locates its logs in /tmp by default
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/13</t>
+  </si>
+  <si>
+    <t>Ensure dotnet code is formatted and analyzed</t>
+  </si>
+  <si>
+    <t>I'm sure we used to do this, but currently our make files are not enforcing that our dotnet sdks go through formatting. We've also got public api analyzers set up which are also not being run.
+Looks like there's been a lot of unstable movement in the dotnet sdks around this area, so make sure everything is using latest sdks before trying to fix this.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/15</t>
+  </si>
+  <si>
+    <t>Custom resource provider in Dotnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+We should expose an equivalent interface to the current Go SDK required to implement a custom resource provider too so we have the option to implement native providers in other languages.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/16</t>
+  </si>
+  <si>
+    <t>C# await hangs when executed from pulumi but not from standalone program</t>
+  </si>
+  <si>
+    <t>### Discussed in https://github.com/pulumi/pulumi/discussions/10674
+&lt;div type='discussions-op-text'&gt;
+&lt;sup&gt;Originally posted by **rgl** September 10, 2022&lt;/sup&gt;
+Can you help me understand why the following `await` call never returns when called from within a Pulumi program but works when called from a stand-alone program?
+```csharp
+return await Deployment.RunAsync(async () =&gt;
+{
+    var baseVolumeName = await GetBaseVolumeName();
+...
+});
+```
+The full example at https://github.com/rgl/dotnet-pulumi-libvirt-ubuntu-example/blob/use-latest-ubuntu-volume/Program.cs#L17
+The same call made from [a standalone program](https://github.com/rgl/dotnet-cli-wrap-virsh-vol-list) works as expected, so I'm not sure of what is going on.
+Can you please help?
+Please find the logs at [pulumi.log](https://github.com/pulumi/pulumi/files/9540042/pulumi.log) (generated with `TF_LOG=TRACE pulumi up --logtostderr --logflow -v=9 2&gt;pulumi.log`).
+&lt;/div&gt;
+cc @rgl</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/17</t>
+  </si>
+  <si>
+    <t>Allow deserialisation of Config to custom types</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- If you want to implement this feature, comment to let us know (we'll work with you on design, scheduling, etc.)
+## Issue details
+Coming from the Typescript SDK, I was surprised to find that deserialisation of config to a custom type did not work. Checking the [documentation](https://www.pulumi.com/docs/intro/concepts/config/#structured-configuration), I found that deserialisation is only supported to the `System.Text.Json.JsonElement` struct, and that the config structure must be further resolved through that class. I can't see an immediate reason for this limitation when STJ supports deserialisation to arbitrary types.
+To clarify, scenarios like this should be supported but aren't:
+```csharp
+DatabaseCredentials db = new Config().RequireSecretObject&lt;DatabaseCredentials&gt;("databaseCredentials");
+```
+### Affected area/feature
+This affects the .NET SDK's core library.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/18</t>
+  </si>
+  <si>
+    <t>InputMap with null value or empty InputJson does not generate</t>
+  </si>
+  <si>
+    <t>### What happened?
+**C#**
+```InputMap map = new Dictionary&lt;string, object&gt;(new [] { KeyValuePair.Create("key", new InputJson() )})```
+```InputMap map = new Dictionary&lt;string, object&gt;(new [] { KeyValuePair.Create("key", null )})```
+**F#**
+```fsharp
+        output {
+            //identity.Id is empty for some reason
+            let! uidId = Output.Format($"/subscriptions/{subscriptionId}/resourcegroups/{rg.Name}/providers/Microsoft.ManagedIdentity/userAssignedIdentities/{identity.Name}")
+            return dict [ uidId, InputJson.op_Implicit "{}" :&gt; obj ]
+        }
+        |&gt; InputMap.op_Implicit
+```
+when passing the map to a resource input or to the stack output, it always results in `{}`
+if I explore the content of the map, the keys/values are there:
+```map.ToOutput().Apply(x =&gt; Log.Warn(x.First().Key))```
+### Steps to reproduce
+1. Create a Dictionary of string and obj
+2. Insert any string as key and null or any form of InputJson as value
+3. Convert it to a map (implicit operator)
+4. Use it in a resource or as stack output
+### Expected Behavior
+Map to be present in the output
+### Actual Behavior
+Map is empty 
+### Output of `pulumi about`
+CLI          
+Version      3.37.2
+Go Version   go1.19
+Go Compiler  gc
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+### Workaround
+I was able to workaround this with ```InputJson.op_Implicit(JsonDocument.Parse("{}"))``` to be able to create resources requiring an empty JSON value on a map</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/19</t>
+  </si>
+  <si>
+    <t>Work out unit testing with top level dotnet 6 programs</t>
+  </si>
+  <si>
+    <t>When using top level statements in a dotnet program (https://www.pulumi.com/blog/pulumi-targets-dotnet-6/) this makes the unit testing approach found [here](https://github.com/pulumi/examples/tree/master/testing-unit-cs) impossible.
+With top level statements, there is no user defined class which directly implements Stack.
+How should unit testing work with top level programs? Can it work with top level programs? Do we just need to document this.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/163</t>
+  </si>
+  <si>
+    <t>LogException using Pulumi.Automation in C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### What happened?
+```
+Pulumi.LogException: Error occurred during logging
+Pulumi.LogException
+Error occurred during logging
+   at Pulumi.Deployment.EngineLogger.LogAsync(LogSeverity severity, String message, Resource resource, Nullable`1 streamId, Nullable`1 ephemeral)
+   at Pulumi.Deployment.Runner.LogExceptionToErrorStream(Exception exception)
+   at Pulumi.Deployment.Runner.HandleExceptionsAsync(IEnumerable`1 exceptions)
+   at Pulumi.Deployment.&lt;&gt;c__DisplayClass71_0.&lt;&lt;RunInlineAsync&gt;b__1&gt;d.MoveNext()
+--- End of stack trace from previous location ---
+   at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+   at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+   at MediatR.Pipeline.RequestExceptionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionActionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionActionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestPostProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestPreProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+--- End of stack trace from previous location ---
+   at Polly.AsyncPolicy.&lt;&gt;c__DisplayClass40_0.&lt;&lt;ImplementationAsync&gt;b__0&gt;d.MoveNext()
+--- End of stack trace from previous location ---
+   at Polly.Retry.AsyncRetryEngine.ImplementationAsync[TResult](Func`3 action, Context context, CancellationToken cancellationToken, ExceptionPredicates shouldRetryExceptionPredicates, ResultPredicates`1 shouldRetryResultPredicates, Func`5 onRetryAsync, Int32 permittedRetryCount, IEnumerable`1 sleepDurationsEnumerable, Func`4 sleepDurationProvider, Boolean continueOnCapturedContext)
+   at Polly.AsyncPolicy.ExecuteAsync(Func`3 action, Context context, CancellationToken cancellationToken, Boolean continueOnCapturedContext)
+   at MediatR.Pipeline.RequestExceptionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionActionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestExceptionActionProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestPostProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+   at MediatR.Pipeline.RequestPreProcessorBehavior`2.Handle(TRequest request, CancellationToken cancellationToken, RequestHandlerDelegate`1 next)
+Grpc.Core.RpcException
+Status(StatusCode="Unavailable", Detail="Error starting gRPC call. HttpRequestException: Connection refused (127.0.0.1:52034) SocketException: Connection refused", DebugException="System.Net.Http.HttpRequestException: Connection refused (127.0.0.1:52034)
+ ---&gt; System.Net.Sockets.SocketException (61): Connection refused
+   at System.Net.Sockets.Socket.AwaitableSocketAsyncEventArgs.System.Threading.Tasks.Sources.IValueTaskSource.GetResult(Int16 token)
+   at System.Net.Sockets.Socket.&lt;ConnectAsync&gt;g__WaitForConnectWithCancellation|277_0(AwaitableSocketAsyncEventArgs saea, ValueTask connectTask, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.ConnectToTcpHostAsync(String host, Int32 port, HttpRequestMessage initialRequest, Boolean async, CancellationToken cancellationToken)
+   --- End of inner exception stack trace ---
+   at System.Net.Http.HttpConnectionPool.ConnectToTcpHostAsync(String host, Int32 port, HttpRequestMessage initialRequest, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.ConnectAsync(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.AddHttp2ConnectionAsync(HttpRequestMessage request)
+   at System.Threading.Tasks.TaskCompletionSourceWithCancellation`1.WaitWithCancellationAsync(CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.GetHttp2ConnectionAsync(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.HttpConnectionPool.SendWithVersionDetectionAndRetryAsync(HttpRequestMessage request, Boolean async, Boolean doRequestAuth, CancellationToken cancellationToken)
+   at System.Net.Http.DiagnosticsHandler.SendAsyncCore(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at System.Net.Http.RedirectHandler.SendAsync(HttpRequestMessage request, Boolean async, CancellationToken cancellationToken)
+   at Grpc.Net.Client.Internal.GrpcCall`2.RunCall(HttpRequestMessage request, Nullable`1 timeout)")
+   at Pulumi.GrpcEngine.LogAsync(LogRequest request)
+   at Pulumi.Deployment.EngineLogger.LogAsync(LogSeverity severity, String message, Resource resource, Nullable`1 streamId, Nullable`1 ephemeral)
+```
+### Steps to reproduce
+Run Pulumi up via Pulumi automation. Not sure what is causing it to happen.
+### Expected Behavior
+That the command didn't fail.
+### Actual Behavior
+It failed (see above error).
+### Versions used
+```
+CLI          
+Version      3.32.1
+Go Version   go1.18.1
+Go Compiler  gc
+Plugins
+NAME    VERSION
+aws     5.4.0
+dotnet  unknown
+tls     4.4.0
+Host     
+OS       darwin
+Version  12.3.1
+Arch     arm64
+This project is written in dotnet (/usr/local/share/dotnet/dotnet v6.0.200)
+Backend        
+URL            file://~
+Organizations  
+NAME             VERSION
+Newtonsoft.Json  13.0.1
+Pulumi           3.32.1
+Pulumi.Aws       5.4.0
+Pulumi.Tls       4.4.0
+```
+### Additional context
+_No response_
+### Contributing
+Vote on this issue by adding a 👍 reaction. 
+To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already). 
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/150</t>
+  </si>
+  <si>
+    <t>.NET Automation API can crash without any feedback</t>
+  </si>
+  <si>
+    <t>## Hello!
+&lt;!-- Please leave this section as-is, it's designed to help others in the community know how to interact with our GitHub issues. --&gt;
+- Vote on this issue by adding a 👍 reaction
+- To contribute a fix for this issue, leave a comment (and link to your pull request, if you've opened one already)
+## Issue details
+When using the Automation API (using .NET) with the `pulumi-aws` provider, errors/feedback are sometimes not being written to stdout/stderr and it fails for an unknown reason. 
+Our logs show: 
+```
+Unhandled exception. Pulumi.Automation.Commands.Exceptions.CommandException: code: 137
+--
+stdout: Updating (ourorg/Test)
+View Live: https://app.pulumi.com/**********/Test/updates/102
+pulumi:pulumi:Stack **********-Test running
+~  pulumi:providers:aws root-account-provider updating [diff: ~version]
+~  pulumi:providers:aws management-provider updating [diff: ~version]
+~  pulumi:providers:aws root-account-provider updated [diff: ~version]
+~  pulumi:providers:aws management-provider updated [diff: ~version]
+at Pulumi.Automation.Commands.LocalPulumiCmd.RunAsyncInner(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, EventLogFile eventLogFile, CancellationToken cancellationToken)
+at Pulumi.Automation.Commands.LocalPulumiCmd.RunAsync(IList`1 args, String workingDir, IDictionary`2 additionalEnv, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+at Pulumi.Automation.Workspace.RunStackCommandAsync(String stackName, IList`1 args, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+at Pulumi.Automation.WorkspaceStack.RunCommandAsync(IList`1 args, Action`1 onStandardOutput, Action`1 onStandardError, Action`1 onEngineEvent, CancellationToken cancellationToken)
+at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+at Pulumi.Automation.WorkspaceStack.UpAsync(UpOptions options, CancellationToken cancellationToken)
+at PulumiRunner.PulumiRunner.RunPulumi(WorkspaceStack stack, PulumiAction action, Action`1 loggingAction, Action`1 errorAction)
+at PulumiRunner.PulumiRunner.DeployInfrastructure(String projectName, String stackName, PulumiAction action, PulumiFn program, Action`1 loggingAction, Action`1 errorAction)
+at *******.InfrastructureDeployment.PulumiServiceInfrastructureDeployment.Deploy(IEnumerable`1 servicesToDeploy) in /home/runner/work/********/******/src/******.RuntimeInfrastructureDeployer/InfrastructureDeployment/PulumiServiceInfrastructureDeployment.cs:line 218
+at ****.RuntimeInfrastructureDeployer.Runner.Run() in /home/runner/work/****/******/src/******.RuntimeInfrastructureDeployer/Runner.cs:line 86
+at ********.RuntimeInfrastructureDeployer.Program.Main(String[] args) in /home/runner/work/********/******/src/******.RuntimeInfrastructureDeployer/Entrypoint.cs:line 34
+at ******.RuntimeInfrastructureDeployer.Program.&lt;Main&gt;(String[] args)
+```
+which doesn't offer any additional information. The view in the pulumi console shows that it's updating the version of the provider and that's it.
+It seems to hang for 5 minutes before finally exiting.
+The copy from stdout above hows there is a diff of version in the providers, I've tried this where they are using the same version and it still hangs on changing _something_ on the providers. The diff doesn't show what though.
+Pulumi in this instance is running in a docker container being executed by a Fargate task, though I don't think that's the causing issue given it will work _sometimes_. I initially thought this was permissions related, but after giving elevated AWS permissions, and seeing this issue around the **providers** especially, I'm not sure that's the case. 
+The providers are either setting a different region / assuming a role in another account, all of which they have permissions to do.
+Running this _outside_ of the automation API, it seems to work without issue.
+It's also worth noting that the creation of the providers inside the automation API seems to be quite slow (2-3 minutes per provider sometimes).
+&lt;!-- Please provide a general summary of the issue, including what you're trying to accomplish. --&gt;
+### Steps to reproduce
+I've not been able to reproduce this reliably, but here's what I have been able to see
+1. Have a .NET pulumi automation API using the classic AWS provider
+2. Introduce multiple providers, e.g. a provider for a few different reasons
+3. run a pulumi up via the automation API, but have something that errors (I've observed: permission / misconfiguration / sns topic subscription timeout)
+4. Fix the error, and run pulumi again via the automation API
+5. Pulumi hangs on provider creation
+Expected: Feedback of the underlying error / for pulumi to execute successfully
+Actual: It hangs/crashes without any feedback</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/149</t>
+  </si>
+  <si>
+    <t>[sdk/dotnet] Implicit `pulumi:pulumi:Stack` parent is included explicitly in resource URNs in mock tests</t>
+  </si>
+  <si>
+    <t>The following test:
+```cs
+    class AliasesStack : Stack
+    {
+        public AliasesStack()
+        {
+            var parent1 = new Pulumi.CustomResource("test:resource:type", "myres1", null, new CustomResourceOptions { });
+         }
+    }
+    class AliasesMocks : IMocks
+    {
+        public Task&lt;object&gt; CallAsync(MockCallArgs args)
+        {
+            return Task.FromResult&lt;object&gt;(args);
+        }
+        public async Task&lt;(string? id, object state)&gt; NewResourceAsync(MockResourceArgs args)
+        {
+            await Task.Delay(0);
+            return ("myID", new Dictionary&lt;string, object&gt;());
+        }
+    }
+```
+```cs
+        [Fact]
+        public async Task TestAliases()
+        {
+            var resources = await Deployment.TestAsync&lt;Aliases.AliasesStack&gt;(new Aliases.AliasesMocks());
+            var parent1Urn = await resources[1].Urn.GetValueAsync("");
+            Assert.Equal("urn:pulumi:stack::project::test:resource:type::myres1", parent1Urn);
+        }
+```
+Fails because the parent URN is actually `"urn:pulumi:stack::project::pulumi:pulumi:Stack$test:resource:type::myres1"`.  This is not expected, as `pulumi:pulumi:Stack` is the implicit parent, and should not be included explicitly in resource URNs.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/23</t>
+  </si>
+  <si>
+    <t>[dotnet] Support serialization of anonymous objects</t>
+  </si>
+  <si>
+    <t>Say, a resource input has the type `InputMap&lt;object&gt;` and you assign the value as
+```cs
+Value = new Dictionary&lt;string, object&gt;
+{
+    ["prometheus"] = new
+    {
+        enabled = true,
+        servicemonitor = new { enabled = true }
+    }
+},
+```
+This code will compile but will fail at serialization time:
+```
+System.AggregateException: One or more errors occurred. (&lt;&gt;f__AnonymousType11`3[[System.String, System.Private.CoreLib, Version=5.0.0.0, Culture=neutral, PublicKeyToken=7cec85d7bea7798e],[System.String, System.Private.CoreLib,
+Version=5.0.0.0, Culture=neutral, PublicKeyToken=7cec85d7bea7798e],[System.String, System.Private.CoreLib, Version=5.0.0.0, Culture=neutral, PublicKeyToken=7cec85d7bea7798e]]
+is not a supported argument type.
+```
+The case in point is a Helm Release (see https://github.com/pulumi/pulumi-kubernetes/issues/1726) although it would be useful in many places where our .NET SDK accepts an `object`, for example for ARM Template deployment in azure-native.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/24</t>
+  </si>
+  <si>
+    <t>`dotnet` expects type to exist in the wrong place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- Please provide a general summary of the issue, including what you're trying to accomplish. --&gt;
+## Steps to reproduce
+1. Go_x0001_ to `sdk_driver.go` and remove `provider-config-schema`'s `SkipCompileCheck`.
+2. Run `go test ./...` from pkg/codegen.
+`dotnet build` failed with:
+```
+❯ dotnet build --nologo
+  Determining projects to restore...
+  All projects are up-to-date for restore.
+/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Config/Config.cs(60,29): error CS0426: The type name 'Child' does not exist in the type 'Config.Types' [/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Pulumi.Configstation.csproj]
+/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Config/Config.cs(59,47): error CS0426: The type name 'Child' does not exist in the type 'Config.Types' [/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Pulumi.Configstation.csproj]
+Build FAILED.
+/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Config/Config.cs(60,29): error CS0426: The type name 'Child' does not exist in the type 'Config.Types' [/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Pulumi.Configstation.csproj]
+/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Config/Config.cs(59,47): error CS0426: The type name 'Child' does not exist in the type 'Config.Types' [/Users/ianwahbe/Projects/pulumi/pulumi/pkg/codegen/internal/test/testdata/provider-config-schema/typecheck/dotnet/Pulumi.Configstation.csproj]
+    0 Warning(s)
+    2 Error(s)
+Time Elapsed 00:00:01.76
+```
+## On closing
+- [ ] Reenable this test in `sdk_driver.go`. </t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/26</t>
+  </si>
+  <si>
+    <t>Pulumi C#/.NET hangs when previewing a program due to dependency cycles</t>
+  </si>
+  <si>
+    <t>This issue stems from cross-checking the https://github.com/pulumi/pulumi/issues/7862 problem in C#/.NET. The problem does exist.
+## Steps to reproduce
+```csharp
+using Pulumi;
+using Pulumi.Aws.S3;
+using Pulumi.Eks;
+class MyStack : Stack
+{
+    public MyStack()
+    {
+        var cluster = new Cluster("example",
+                                  new ClusterArgs()
+                                  {
+                                      VpcId = "doesntmatter",
+                                      SkipDefaultNodeGroup = true,
+                                  });
+        new Pulumi.Aws.Eks.NodeGroup(
+            "example-ng",
+            new Pulumi.Aws.Eks.NodeGroupArgs()
+            {
+                ClusterName = "example",
+                InstanceTypes = "t3.micro",
+                NodeRoleArn = cluster.InstanceRoles.Apply(xs =&gt; xs[0].Arn),
+                SubnetIds = "doesntmatter",
+                ScalingConfig = new Pulumi.Aws.Eks.Inputs.NodeGroupScalingConfigArgs()
+                {
+                    DesiredSize = 1,
+                    MaxSize = 1,
+                    MinSize = 1,
+                },
+            },
+            new Pulumi.CustomResourceOptions()
+            {
+                Parent = cluster,
+            }
+        );
+    }
+}
+```
+Expected: pulumi preview works
+Actual: pulumi preview hangs</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/321</t>
+  </si>
+  <si>
+    <t>[Flakey test] - WorkspaceStackSupportsCancel()</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi/pull/7459/checks?check_run_id=3022518024#step:17:95
+The [WorkspaceStackSupportsCancel()](https://github.com/pulumi/pulumi/blob/22669d70fc1ab4acfe214776a602bc8b7a72e62a/sdk/dotnet/Pulumi.Automation.Tests/LocalWorkspaceTests.cs#L1434) is flakey and consistently breaks builds so it has been turned off.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/28</t>
+  </si>
+  <si>
+    <t>Add Helper Method to allow Output "All" to Support .NET Dictionary Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- Enhancement requests are most helpful when they describe the problem you're having as well as articulating the potential solution you'd like to see built. --&gt;
+Output.All() does not support dictionary types, as it does enumerable types. It would be useful to have a helper method to transform a Dictionary into an Output type, much like Output.All() does for enumerable types.
+```csharp
+var dictionary = new Dictionary&lt;string, Output&lt;string&gt;&gt;();
+var list = new List&lt;Output&lt;string&gt;&gt;();
+for (var i = 0; i &lt; 3; i++)
+{
+    var key = $"bucket-{i}";
+    var bucket = new Bucket(key);
+    list.Add(bucket.Id);
+    dictionary.Add(DateTime.Now.Ticks.ToString(), bucket.Id);
+}
+// All accepts enumerable types
+BucketIds = Output.All(list);
+// All does not have a helper method for dictionaries
+// DOES NOT COMPILE
+BucketData = Output.All(dictionary);
+```
+Currently, this can be supported by passing the Dictionary's "Values" to Output.All(), however, one then has to join the dictionary Keys and the output values into an ImmutableDictionary before exiting the program. 
+Possibly, a new All() helper method could be created separate the Keys and Values of the incoming dictionary, create OutputData for the Values, specifically, and join Keys and new Values into a new dictionary before returning to the caller?
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/29</t>
+  </si>
+  <si>
+    <t>[dotnet] Let the Pulumi CLI search for the binary and then for the .csproj</t>
+  </si>
+  <si>
+    <t>According to the [documentation](https://www.pulumi.com/docs/reference/pulumi-yaml/#:~:text=.NET%3A%20A%20string%20that%20specifies%20the%20path%20of%20a%20pre-built%20.NET%20assembly.%20If%20not%20specified%2C%20a%20.NET%20project%20in%20%24CWD%20will%20be%20invoked%20via%20dotnet%20run.), 
+&gt; binary: applies to Go and .NET projects only
+&gt; - .NET: A string that specifies the path of a pre-built .NET assembly. If not specified, a .NET project in $CWD will be invoked via dotnet run.
+Can we let the CLI search for the .csproj after it doesn't find a .dll?
+If I understand the code correctly, it should be done somewhere here: https://github.com/pulumi/pulumi/blob/a41ed7594272adcbc5494ddc1f4ed08e64a093c4/sdk/dotnet/cmd/pulumi-language-dotnet/main.go#L66-L81
+I have the following scenario:
+`Pulumi.yaml.dev`
+```
+name: Infra
+runtime:
+    name: dotnet
+    options:
+        binary: MyProject.dll
+description: A minimal Azure Native C# Pulumi program
+```
+I use the binary in the my CI/CD pipeline and it works as expected. However, when I try to run the project locally with `pulumi preview` it can't find the .dll
+```
+Diagnostics:
+  pulumi:pulumi:Stack (Infra-dev):
+    Could not execute because the specified command or file was not found.
+    Possible reasons for this include:
+      * You misspelled a built-in dotnet command.
+      * You intended to execute a .NET program, but dotnet-MyProject.dll does not exist.
+      * You intended to run a global tool, but a dotnet-prefixed executable with this name could not be found on the PATH.
+    error: an unhandled error occurred: Program exited with non-zero exit code: 1
+```
+Which is expected, on my local machine the .dll is somewhere in `bin/(Debug/Release)/net5.0`.
+The only way to make it work is either running `pulumi preview --cwd="bin/Debug/net5.0"` or commenting out the options as suggested [here](https://github.com/pulumi/pulumi/issues/5334#issuecomment-691742333). Both are a bit inconvenient.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/31</t>
+  </si>
+  <si>
+    <t>Unable to specify enumerated properties as strings</t>
+  </si>
+  <si>
+    <t>With AzureNextGen/DotNet I could use string instead of enumeration values for properties such as the Tier and Name when creating a Service Bus Namespace
+```
+Sku = new AzureNative.ServiceBus.Inputs.SBSkuArgs
+{
+    Name =  "Standard",
+    Tier = "Standard",
+}
+```
+This was handy when pulling these values from a config yaml file.
+With AzureNative I am unable to do this.  If I try to use a string variable here I get the following error
+*Cannot implicitly convert type 'string' to 'Pulumi.Input&lt;Pulumi.AzureNative.ServiceBus.SkuName&gt;'*
+If the string value is stored in a variable called configName I have to use the following ugly code
+```
+Sku = new AzureNative.ServiceBus.Inputs.SBSkuArgs
+{
+    Name =  (SkuTier)(typeof(SkuTier).GetProperty(configName )?.GetValue(null))!,
+} 
+```
+Can we please allow these areas to accept string inputs again?
+## Steps to reproduce
+Try to create a new AzureNative ServiceBusNamespace and specify the Name or Tier as a string e.g. 
+Name = "Standard",
+Thanks
+Alan</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/32</t>
+  </si>
+  <si>
+    <t>Urn property left null when a Resource subclass accidentally redefines it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a class inherits from `Resource` and defines a property called `Urn`, we start getting NullPointer exceptions from core code as the `Resource.Urn` property is left undefined.
+From C# language point of view, the `Urn` property is non-virtual already, and *cannot* be overridden by subclasses. It cannot be marked `sealed` to throw a compiler error when users override it accidentally. 
+However, it appears that Pulumi SDK does not set the `Urn` property using regular C# statically checked assignment, but instead uses reflection. I have not narrowed it down with full confidence but I think this might be happening in `OutputCompletionSource.InitializeOutputs`. Therefore, this reflection code emulates virtual properties, and ends up assigning the wrong property.
+It is possible that the name conflict is also an issue in some RPC protocol if it contends for the same slot on a serializer object, and cannot be fixed simply be editing the C# code.
+So stepping back, a fix here would:
+- either allow properties called Urn to work as expected on resources
+- give clear feedback to the user that they cannot define a property called Urn and need to rename it (and we want this feedback on all auto-generated providers also)
+## Steps to reproduce
+See https://github.com/pulumi/examples/issues/1017
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/33</t>
+  </si>
+  <si>
+    <t>Pulumi C# v3.2.1 is running Output.Apply in preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When running `pulumi up` with Azure Native I'm getting a `ResourceNotFound` error, but it's just a preview so shouldn't be executing the code that's causing the error.
+## Expected behavior
+I expect for a preview that the Output.Apply code block is not executed, [as per the documentation](https://www.pulumi.com/docs/intro/concepts/inputs-outputs/#apply).
+## Current behavior
+The Apply code block is being executed.
+## Steps to reproduce
+```
+var functionApp = new WebApp("functionsApp", new WebAppArgs
+  {
+      ResourceGroupName = resGroup.Name,
+      Name = "fn-uat",
+      ServerFarmId = plan.Id,
+      Kind = "functionapp",
+  });
+this.FunctionAppKey = Output.Tuple(functionApp.Name, resGroup.Name, Output.CreateSecret("")).Apply(
+    t =&gt; ListWebAppHostKeys.InvokeAsync(new ListWebAppHostKeysArgs
+    {
+        Name = t.Item1,
+        ResourceGroupName = t.Item2,
+    })).Apply(result =&gt; result.MasterKey);
+```
+## Context (Environment)
+This only reared it's head as I'm deploying a new environment for the first time. Here's the redacted log.
+```
+Previewing update (uat)
+View Live: https://app.pulumi.com/...
+     Type                                                   Name                      Plan       Info
+     pulumi:pulumi:Stack                                    integrations-uat      1 error; 1 message
+ ~   ├─ azure-native:web:AppServicePlan                     plan                      update     [diff: ~sku]
+ +   ├─ azure-native:apimanagement:ApiManagementService     apiService                create     
+ +   ├─ azure-native:sql:FirewallRule                       sqlDbFirewallAllowAzure   create     
+ +   ├─ azure-native:sql:Database                           sqlDb                     create     
+ +   ├─ azure-native:servicebus:Queue                       emailQueue                create     
+ +   ├─ azure-native:servicebus:NamespaceAuthorizationRule  busRuleSendListen         create     
+ +   ├─ azure-native:apimanagement:NamedValue               partnerPortalAppIdValue   create     
+ +   ├─ azure-native:apimanagement:NamedValue               openIdConfigUrlValue      create     
+ +   ├─ azure-native:apimanagement:ApiVersionSet            partnerVersionSet         create     
+ +   ├─ azure-native:apimanagement:User                     partnerUser               create     
+ +   ├─ azure-native:apimanagement:Logger                   apiLogger                 create     
+ +   ├─ azure-native:apimanagement:Product                  partnerProduct            create     
+ +   ├─ azure-native:apimanagement:Subscription             subscription              create     
+ +   ├─ azure-native:web:WebApp                             functionsApp              create     
+ +   ├─ azure-native:apimanagement:Api                      partnerApi                create     
+ +   ├─ azure-native:apimanagement:ProductApi               partnerProductApi         create     
+ +   └─ azure-native:web:WebApp                             partnerPortalApp          create     
+Diagnostics:
+  pulumi:pulumi:Stack (integrations-uat):
+    project: ... | location: AustraliaEast | stack: uat | env: uat | consumption: False | production: False | (preview)
+    error: Running program '/Users/.../bin/Debug/netcoreapp3.1/Infrastructure.dll' failed with an unhandled exception:
+    Grpc.Core.RpcException: Status(StatusCode="Unknown", Detail="invocation of azure-native:web:listWebAppHostKeys returned an error: request failed /subscriptions/.../resourceGroups/res-uat/providers/Microsoft.Web/sites/fn-uat/host/default/listkeys: autorest/azure: Service returned an error. Status=404 Code="ResourceNotFound" Message="The Resource 'Microsoft.Web/sites/fn-uat' under resource group 'res-uat' was not found. For more details please go to https://aka.ms/ARMResourceNotFoundFix"", DebugException="Grpc.Core.Internal.CoreErrorDetailException: {"created":"@1620789602.902369000","description":"Error received from peer ipv4:127.0.0.1:64203","file":"/tmpfs/src/github/grpc/workspace_csharp_ext_macos_x64/src/core/lib/surface/call.cc","file_line":1063,"grpc_message":"invocation of azure-native:web:listWebAppHostKeys returned an error: request failed /subscriptions/.../resourceGroups/res-uat/providers/Microsoft.Web/sites/fn-uat/host/default/listkeys: autorest/azure: Service returned an error. Status=404 Code="ResourceNotFound" Message="The Resource 'Microsoft.Web/sites/fn-uat' under resource group 'res-uat' was not found. For more details please go to https://aka.ms/ARMResourceNotFoundFix"","grpc_status":2}")
+       at Pulumi.GrpcMonitor.InvokeAsync(InvokeRequest request)
+       at Pulumi.Deployment.InvokeRawAsync(String token, InvokeArgs args, InvokeOptions options)
+       at Pulumi.Deployment.InvokeAsync[T](String token, InvokeArgs args, InvokeOptions options, Boolean convertResult)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Deployment.SerializeFilteredPropertiesAsync(String label, IDictionary`2 args, Predicate`1 acceptKey, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Deployment.SerializeFilteredPropertiesAsync(String label, IDictionary`2 args, Predicate`1 acceptKey, Boolean keepResources)
+       at Pulumi.Deployment.PrepareResourceAsync(String label, Resource res, Boolean custom, Boolean remote, ResourceArgs args, ResourceOptions options)
+       at Pulumi.Deployment.SerializeAllPropertiesAsync(String label, IDictionary`2 args, Boolean keepResources)
+       at Pulumi.Deployment.RegisterResourceOutputsAsync(Resource resource, Output`1 outputs)
+       at Pulumi.Deployment.RegisterResourceAsync(Resource resource, Boolean remote, Func`2 newDependency, ResourceArgs args, ResourceOptions options)
+       at Pulumi.Deployment.Runner.&lt;&gt;c__DisplayClass9_0.&lt;&lt;WhileRunningAsync&gt;g__HandleCompletion|0&gt;d.MoveNext()
+    --- End of stack trace from previous location where exception was thrown ---
+       at Pulumi.Output`1.GetValueAsync()
+       at Pulumi.Deployment.Logger.TryGetResourceUrnAsync(Resource resource)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.&lt;TupleHelperAsync&gt;g__GetData|20_0[T1,T2,T3,T4,T5,T6,T7,T8,X](Input`1 input)
+       at Pulumi.Output`1.TupleHelperAsync[T1,T2,T3,T4,T5,T6,T7,T8](Input`1 item1, Input`1 item2, Input`1 item3, Input`1 item4, Input`1 item5, Input`1 item6, Input`1 item7, Input`1 item8)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.Pulumi.IOutput.GetDataAsync()
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeDictionaryAsync(String ctx, IDictionary dictionary, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeInputArgsAsync(String ctx, InputArgs args, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Deployment.SerializeFilteredPropertiesAsync(String label, IDictionary`2 args, Predicate`1 acceptKey, Boolean keepResources)
+       at Pulumi.Deployment.PrepareResourceAsync(String label, Resource res, Boolean custom, Boolean remote, ResourceArgs args, ResourceOptions options)
+       at Pulumi.Deployment.RegisterResourceAsync(Resource resource, Boolean remote, Func`2 newDependency, ResourceArgs args, ResourceOptions options)
+       at Pulumi.Deployment.ReadOrRegisterResourceAsync(Resource resource, Boolean remote, Func`2 newDependency, ResourceArgs args, ResourceOptions options)
+       at Pulumi.Deployment.CompleteResourceAsync(Resource resource, Boolean remote, Func`2 newDependency, ResourceArgs args, ResourceOptions options, ImmutableDictionary`2 completionSources)
+       at Pulumi.Output`1.GetValueAsync()
+       at Pulumi.Deployment.Logger.TryGetResourceUrnAsync(Resource resource)
+       at Pulumi.Output`1.ApplyHelperAsync[U](Task`1 dataTask, Func`2 func)
+       at Pulumi.Output`1.Pulumi.IOutput.GetDataAsync()
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop, Boolean keepResources)
+       at Pulumi.Deployment.SerializeFilteredPropertiesAsync(String label, IDictionary`2 args, Predicate`1 acceptKey, Boolean keepResources)
+       at Pulumi.Deployment.PrepareResourceAsync(String label, Resource res, Boolean custom, Boolean remote, ResourceArgs args, ResourceOptions options)
+```
+## Affected feature
+pulumi up preview
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/34</t>
+  </si>
+  <si>
+    <t>[Hackathon] Investigate options for publishing single-file binaries from .NET</t>
+  </si>
+  <si>
+    <t>As part of improving the authoring experience for multi-language component Pulumi Packages in pulumi/pulumi#6804, we should investigate if there is a good solution in .NET for generating a single-file binary with no dependencies (e.g. no requirement to install the .NET SDK). Potential candidates:
+- [.NET single file distribution](https://docs.microsoft.com/en-us/dotnet/core/deploying/single-file)</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/35</t>
+  </si>
+  <si>
+    <t>Set a NuGet package type in created NuGet packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per a Loic Sharma on Twitter:
+&gt; Hi for Pulumi packages, y'all may want to consider using a custom NuGet package type. This would let you filter search results to just Pulumi packages, For example, if you create a package type "pulumi" you could then use that as a filter in search results: https://www.nuget.org/packages?packagetype=pulumi
+https://docs.microsoft.com/en-us/nuget/create-packages/set-package-type
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/36</t>
+  </si>
+  <si>
+    <t>Add dotnet serialization tests for structured logging events</t>
+  </si>
+  <si>
+    <t>Idea: add tests that demonstrate that dotnet SDK can parse the serialized form of EngineEvent generated by Pulumi CLI.
+In current design Pulumi CLI and dotnet SDK exchange JSON messages over a file: EngineEvent, StdoutEngineEvent, DiagnosticEvent, and similar. This is a protocol that is not supported by an explicit schema tool like protobufs, so we need to remember to update the SDK when changes are made to these event objects. The idea here is to introduce some test that would serve as a reminder when they detect such changes.
+## Affected feature
+Structured logging in dotnet.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/37</t>
+  </si>
+  <si>
+    <t>Boilerplate repo for creating multi-lang component provider in .NET</t>
+  </si>
+  <si>
+    <t>Depends on pulumi/pulumi-dotnet#46</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/42</t>
+  </si>
+  <si>
+    <t>Import: program generation fails on '$default' property name</t>
+  </si>
+  <si>
+    <t>Using the CLI import command for an IotHubResource gives...
+Still seems to get imported, but is everything okay?
+```
+error: internal error: Error: Invalid character
+  on anonymous.pp line 137:
+ 138: $default ={
+This character is not used within the language.
+Error: Invalid expression
+  on anonymous.pp line 137:
+ 138: $default ={
+Expected the start of an expression, but found an invalid expression token.
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/43</t>
+  </si>
+  <si>
+    <t>[sdk/dotnet] Use simpler types for relaxed enums</t>
+  </si>
+  <si>
+    <t>It seems like the (C#) typing can be simplified to something more understandable by the common developer.
+For instance, in AzureNextGen, `VaultArgs.Properties.AccessPolicies.Permissions` currently has the following definitions:
+```csharp
+public InputList&lt;Union&lt;string, CertificatePermissions&gt;&gt; Certificates;
+public InputList&lt;Union&lt;string, KeyPermissions&gt;&gt; Keys;
+public InputList&lt;Union&lt;string, SecretPermissions&gt;&gt; Secrets;
+public InputList&lt;Union&lt;string, StoragePermissions&gt;&gt; Storage;
+```
+And the Azure version has much simpler definitions:
+```csharp
+public InputList&lt;string&gt; CertificatePermissions;
+public InputList&lt;string&gt; KeyPermissions;
+public InputList&lt;string&gt; SecretPermissions;
+public InputList&lt;string&gt; StoragePermissions;
+```
+The move to use enum-like strings is a huge benefit, but the casual developer isn't going to understand what `Union&lt;string, KeyPermissions&gt;` is supposed to mean.
+Instead I recommend we simplify down to:
+```csharp
+public InputList&lt;CertificatePermissions&gt; Certificates;
+public InputList&lt;KeyPermissions&gt; Keys;
+public InputList&lt;SecretPermissions&gt; Secrets;
+public InputList&lt;StoragePermissions&gt; Storage;
+```
+This is doable by adding one line of code (for each type):
+```csharp
+public static implicit operator KeyPermissions(string value) =&gt; new KeyPermissions(value);
+```
+And makes things much clearer!
+UPDATE:
+The Azure SDK uses a public constructor instead. If we went that route, we would only need change the method constructor from `private` to `public`.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/44</t>
+  </si>
+  <si>
+    <t>[codegen/dotnet] - Implement boolean enums</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/47</t>
+  </si>
+  <si>
+    <t>[codegen/dotnet] Input/Output types don't mark deprecated properties as obsolete</t>
+  </si>
+  <si>
+    <t>For example:
+[Node.js](https://github.com/pulumi/pulumi-azure/blob/b71f7a61f0768215f8641b812b929fe20305c23d/sdk/nodejs/types/input.ts#L1366-L1369):
+```typescript
+        /**
+         * @deprecated This field has been deprecated in favour of `virtual_network_subnet_id` and will be removed in a future version of the provider
+         */
+        subnetId?: pulumi.Input&lt;string&gt;;
+```
+[.NET](https://github.com/pulumi/pulumi-azure/blob/8250f3f0fdab84a9e17c5307a16fe53922cebe74/sdk/dotnet/AppService/Inputs/AppServiceSiteConfigIpRestrictionArgs.cs#L39-L40):
+```c#
+        [Input("subnetId")]
+        public Input&lt;string&gt;? SubnetId { get; set; }
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/48</t>
+  </si>
+  <si>
+    <t>C# project with launchSettings.json causes diagnostic messages</t>
+  </si>
+  <si>
+    <t>While experimenting with Visual Studio [`launchSettings.json`](https://docs.microsoft.com/en-us/visualstudio/containers/container-launch-settings) in a Pulumi C# project:
+```json
+{
+  "profiles": {
+    "Pulumi": {
+      "commandName": "Executable",
+      "executablePath": "pulumi",
+      "commandLineArgs": "preview --non-interactive --stack=org/alpha",
+      "environmentVariables": {
+        "PULUMI_DEBUG": "true"
+      }
+    }
+  }
+}
+```
+... I started getting the following diagnostic messages during `pulumi preview`:
+```
+Diagnostics:
+  pulumi:pulumi:Stack (stack-alpha):
+    The launch profile "(Default)" could not be applied.
+    A usable launch profile could not be located.
+```
+... and if I delete the `launchSettings.json` file then the diagnostic messages disappear.
+It looks like this is due to the way `pulumi` shells out to [`dotnet run`](https://docs.microsoft.com/en-us/dotnet/core/tools/dotnet-run) and, since this file is irrelevant in that case, I think this would be fixed by `pulumi` also passing the `--no-launch-profile` option to `dotnet run`.
+&gt; Doesn't try to use launchSettings.json to configure the application.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/49</t>
+  </si>
+  <si>
+    <t>Better tooltip text for VS Code?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tooltip text in VS Code seems to have some formatting issues.
+### Example 1
+```
+public InputList&lt;string&gt; SubnetCidrBlock { get; set; } = null!;
+```
+shows this in the tooltip:
+![image](https://user-images.githubusercontent.com/293763/87639567-4893f080-c6fa-11ea-8cf9-f60b67d9f5b2.png)
+### Example 2 
+```
+public Input&lt;string&gt; SubnetCidrBlock { get; set; } = null!;
+``` 
+shows this in the tooltip:
+![image](https://user-images.githubusercontent.com/293763/87639863-b93b0d00-c6fa-11ea-8692-1797b3552809.png)
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/50</t>
+  </si>
+  <si>
+    <t>C# codegen should emit examples as &lt;example&gt;</t>
+  </si>
+  <si>
+    <t>When resources are generated in C#, the usage examples are put directly inside the `summary` tag:
+```cs
+    /// &lt;summary&gt;
+    /// Provides a Load Balancer resource.
+    /// 
+    /// ## Example Usage
+    /// ### Application Load Balancer
+    /// 
+    /// ```csharp
+    /// using System.Linq;
+    /// using Pulumi;
+    /// ...
+    /// }
+    /// 
+```
+Instead, XML Docs defines `example/code` tags, for instance:
+```cs
+        /// &lt;summary&gt;
+        /// The GetZero method.
+        /// &lt;/summary&gt;
+        /// &lt;example&gt;
+        /// This sample shows how to call the &lt;see cref="GetZero"/&gt; method.
+        /// &lt;code&gt;
+        /// class TestClass
+        /// {
+        ///     static int Main()
+        ///     {
+        ///         return GetZero();
+        ///     }
+        /// }
+        /// &lt;/code&gt;
+        /// &lt;/example&gt;
+```
+Consider applying this format to the generated C# code to improve Intellisense and DocFX docs.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/51</t>
+  </si>
+  <si>
+    <t>Inconsistent behaviour accessing AppService Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have created an Azure App Service using C# and specified the following (abbreviated) args
+`var webApp = new AppService(name, new AppServiceArgs
+{
+    ClientAffinityEnabled = false,
+    HttpsOnly = true,
+}`
+I can access the value for ClientAffinityEnabled like this
+`var temp = webApp.ClientAffinityEnabled;`
+but that doesn't work for the value of HttpsOnly which I have to access using Apply like
+`var temp = webApp.HttpsOnly.Apply(v =&gt; v!.Value);`
+Mikhail suggested in Slack that this was due to an issue with the "duality of nullable types in C# (value vs reference)" and asked me to raise this issue for it ([original question in slack](https://pulumi-community.slack.com/archives/CQ2QFLNFL/p1589623937100600))</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/52</t>
+  </si>
+  <si>
+    <t>Proposal: strongly-typed API to specify secret outputs (dotnet)</t>
+  </si>
+  <si>
+    <t>Specifying that some resources' outputs should be secret currently works like this:
+```csharp
+var secret = new RandomPassword("my-random-password",
+    new RandomPasswordArgs
+    {
+        Length = 30,
+        Special = true,
+    },
+    new CustomResourceOptions
+    {
+        AdditionalSecretOutputs = new List&lt;string&gt;
+        {
+            "result" // stringly-typed API, no compiler feedback for typos, etc.
+        }
+    });
+```
+I propose an alternative approach so that end-users can specify secrets in a strongly-typed way to prevent a mistyped string from potentially leaking secrets at runtime and/or failing at runtime:
+```csharp
+var secret = new RandomPassword("my-random-password",
+    new RandomPasswordArgs
+    {
+        Length = 30,
+        Special = true,
+    },
+    new CustomResourceOptions&lt;RandomPassword&gt;() // specify generic for strong typing
+        .AddSecretOutput(x =&gt; x.Result) // specify output via expression; typos yield compiler errors
+    );
+```</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/53</t>
+  </si>
+  <si>
+    <t>Pulumi does not respect Output properties defined in base classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you use your own base class and define an Output property like this:
+```csharp
+// Custom Base class BaseStack: Stack
+[Output] public Output&lt;string&gt; OutputA { get; set; } = Output.Create("a");
+```
+`pulumi up` does not recognize `OutputA` as a change.
+If you put the property on the beginning of the hierarchie (MyStack --&gt; BaseStack --&gt; Stack), everything works fine.
+```csharp
+// class MyStack: BaseStack
+[Output] public Output&lt;string&gt; OutputA { get; set; } = Output.Create("a");
+```
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/54</t>
+  </si>
+  <si>
+    <t>Better support for defining Pulumi conventions in .NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have 3 requirements, which I would like to implement as a convention in Pulumi.
+- By default all AppServices must be HttpsOnly
+- All resources must have a speficied set of tags
+- All resources belong into one resource group
+```csharp
+private static ResourceTransformationResult? Transform(ResourceTransformationArgs args)
+{
+    if (args.Args is AppServiceArgs serviceArgs)
+    {
+        serviceArgs.HttpsOnly = true;
+    }
+    var tagsProperty = args.Args.GetType().GetProperty("Tags");
+    if (tagsProperty != null) tagsProperty.SetValue(args.Args, GetTags());
+    var resourceGroupNameProperty = args.Args.GetType().GetProperty("ResourceGroupName");
+    if (resourceGroupNameProperty != null) resourceGroupNameProperty.SetValue(args.Args, (Input&lt;string&gt;)ResourceGroupName);
+    return new ResourceTransformationResult(args.Args, args.Options);
+}
+```
+As you can there is no other way than using reflection to get the `Tags` and `ResourceGroupName` property. 
+It would be nice to have a better object model for resources (e.g. Marker Interfaces). 
+Alternatively a specialised DSL could also be ok.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/55</t>
+  </si>
+  <si>
+    <t>Support for Solution file in .NET Core</t>
+  </si>
+  <si>
+    <t>I have one csproj file within one Visual Studio solution. 
+When I run `pulumi up` I get the following error:
+&gt;  MSBUILD : error MSB1050: Specify which project or solution file to use because the folder "." contains more than one project or solution file.
+Please make it possible to explicitly pass in the correct csproj file via pulumi console or pulumi stack configuration or determine the csproj file automatically and pass it to msbuild.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/56</t>
+  </si>
+  <si>
+    <t>Do not require public setters on .NET Stacks</t>
+  </si>
+  <si>
+    <t>A small but annoying implementation detail. The following code:
+```cs
+class ValidStack : Stack
+ {
+    [Output]
+    public Output&lt;string&gt; Foo { get; }
+    public ValidStack()
+    {
+       this.Foo = Output.Create("bar");
+    }
+}
+```
+is perfectly valid C# code but will fail at runtime because there's no public setter on `Foo`. That's a reasonable requirement for Custom Resources but not for Stacks. A stack is responsible for instantiating its own outputs and they are [validated separately](https://github.com/pulumi/pulumi/blob/master/sdk/dotnet/Pulumi/Stack.cs#L89).
+IDEs may give a refactoring suggestion to remove unused setters on stack classes, which unexpectedly break the program. Because this applies to almost all .NET stacks ever, I think it's worth relaxing the check.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/57</t>
+  </si>
+  <si>
+    <t>Create method/extensions to allow math on Output and Input Variables (.NET)</t>
+  </si>
+  <si>
+    <t>When I have input variables such or even output variables from a lookup that are int types I cannot add these variables together.
+```c#
+var int1 = args.VmTemplate.Apply(x =&gt; x.Disks[0].Size ) + args.SrvExtendSize
+// or even
+var int2 = args.VmTemplate.Apply(x =&gt; x.Disks[0].Size ) + args.SrvExtendSize.ToOutput()
+```
+The only way to successfully get this to work was to use the Tuple method which is a lot just to add two numbers.
+```c#
+var int = Output.Tuple(args.VmTemplate, args.SrvExtendSize).Apply(t =&gt; {
+    var (template, extendedSize) = t;
+    return template.Disks[0].Size + extendedSize;
+});
+```
+I am proposing that extension methods be created to allow adding/subtracting/diving/multiplying, etc. output and input variables or even overloading the operators but that wont work with all languages. This would make it much easier.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/58</t>
+  </si>
+  <si>
+    <t>Serialization failure exporting an `[OutputType]` class as a stack export in .NET</t>
+  </si>
+  <si>
+    <t>I get this:
+```
+ System.InvalidOperationException: Pulumi.Kubernetes.Types.Outputs.Rbac.V1.Subject is not a supported argument type.
+        monitor.registerResourceOutputs(...).subjects.id[0]
+       at Pulumi.Serialization.Serializer.SerializeAsync(String ctx, Object prop)
+       at Pulumi.Serialization.Serializer.SerializeListAsync(String ctx, IList list)
+```
+When trying to return to add the last line (`subjects`) below:
+```cs
+             return new Dictionary&lt;string, object&gt;{
+                { "namespacePhase", ns.Status.Apply(status =&gt; status.Phase) },
+                { "revisionData", revision.Data },
+                { "subjects", binding.Subjects },
+            };
+```
+The type of that property is:
+```cs
+Output&lt;System.Collections.Immutable.ImmutableArray&lt;Pulumi.Kubernetes.Types.Outputs.Rbac.V1.Subject&gt;&gt; RoleBinding.Subjects
+```
+It appears that the serialization we do for `registerResourceOutputs` and/or stack exports is not correctly supporting `OutputType` classes.</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/59</t>
+  </si>
+  <si>
+    <t>Idiomatic F# API</t>
+  </si>
+  <si>
+    <t>Pulumi .NET SDK supports F# as one of the languages to author infrastructure programs. It works quite fine, but there are several complications which make F# programs harder to write.
+A typical Pulumi program consists of a number of value assignments, each calling a constructor of a resource type with proper arguments. The resource is defined by virtue of calling its constructor: the value doesn't need to be returned or passed to anywhere.
+Let's look at two existing examples:
+**A. Azure resources ([full code](https://github.com/pulumi/examples/blob/master/azure-fs-appservice/Program.fs)):**
+``` fsharp
+let resourceGroup = ResourceGroup "appservice-rg"
+let storageAccount =
+    Account("sa",
+        AccountArgs
+           (ResourceGroupName = io resourceGroup.Name,
+            AccountReplicationType = input "LRS",
+            AccountTier = input "Standard"))
+let sku = PlanSkuArgs(Tier = input "Basic", Size = input "B1")
+let appServicePlan = 
+    Plan("asp", 
+        PlanArgs
+           (ResourceGroupName = io resourceGroup.Name,
+            Kind = input "App",
+            Sku = input sku))
+```
+**B. Kubernetes deployment ([full code](https://github.com/pulumi/templates/blob/master/kubernetes-fsharp/Program.fs)):**
+``` fsharp
+let deployment = 
+    Pulumi.Kubernetes.Apps.V1.Deployment("nginx",
+      DeploymentArgs
+        (Spec = input (DeploymentSpecArgs
+          (Selector = input (LabelSelectorArgs(MatchLabels = appLabels)),
+           Replicas = input 1,
+           Template = input (
+             PodTemplateSpecArgs
+              (Metadata = input (ObjectMetaArgs(Labels = appLabels)),
+               Spec = input (
+                  PodSpecArgs
+                    (Containers = 
+                      inputList [
+                        input (
+                          ContainerArgs
+                            (Name = input "nginx",
+                             Image = input "nginx",
+                             Ports = 
+                              inputList [
+                                input (
+                                 ContainerPortArgs
+                                   (ContainerPortValue = input 80))]))]))))))))
+```
+Here are some challenges:
+### 1. Inputs and outputs.
+Resources may contain output values: e.g. `resourceGroup.Name` in the first snippet. Its value might not be known at the time when this property is used, so a special type `Output&lt;T&gt;` is used to define the outputs. It's somewhat similar to `Task&lt;T&gt;`.
+Each resource's constructor accepts a property bag where each property typically has type `Input&lt;T&gt;` or a type derived from it. An input can be a plain value (`1`, `"nginx") or point to an output value of another resource. This allows chaining the resources and creating dependencies between them.
+While C# has implicit conversions between plain values, outputs, and inputs, F# type system is strict and requires conversions. Helper functions `input`, `io`, `inputList`, etc. were created to simplify the conversions, but they still clutter the code, and might be tricky to get right at times.
+### 2. Indentation.
+F# is white space significant, so the indentations must be right. The kubernetes example above shows that some resource args may use subtypes and sub-sub-types etc, so indentation gets quite heavy. It's also very strict, and compiler messages are not very helpful in getting it right.
+Going one level deeper requires a `(` or `[`, so the final statement ends with something like `))]))]))))))))`.
+### 3. Side effects.
+Resources are defined by calling constructors. Effectively, Pulumi SDK is based on side effects of calling those constructors as opposed to pure functions returning results. This goes against F# philosophy and puts an obstacle against many useful functional techniques.
+---
+For inspiration, a comparable kubernetes example in TypeScript looks much more concise:
+``` ts
+const deployment = new k8s.apps.v1.Deployment("nginx", {
+    spec: {
+        selector: { matchLabels: appLabels },
+        replicas: 1,
+        template: {
+            metadata: { labels: appLabels },
+            spec: { containers: [{ name: "nginx", image: "nginx" }] }
+        }
+    }
+});
+```
+The goal is to bring readability and write-ability of F# programs close to this level.
+---
+Good places to give a try to a Pulumi program in F#:
+- [Getting Started with Kubernetes](https://www.pulumi.com/docs/get-started/kubernetes/install-pulumi/) - use `kubernetes-fsharp` template when asked ([link to the template](https://github.com/pulumi/templates/tree/master/kubernetes-fsharp)]
+- [Azure AppService example](https://github.com/pulumi/examples/tree/master/azure-fs-appservice)</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/60</t>
+  </si>
+  <si>
+    <t>.NET SDK: allow arbitrary objects to be exported from a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We could convert them to POCOs and export those (like we do with js/ts/python).  </t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/61</t>
+  </si>
+  <si>
+    <t>Callback serialization for .NET</t>
+  </si>
+  <si>
+    <t>Investigate callback serialization for .NET to support things like callback-based serverless functions</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/62</t>
+  </si>
+  <si>
+    <t>Investigate 'lifting' on .NET outputs</t>
+  </si>
+  <si>
+    <t>Given some
+``` csharp
+class A
+{ 
+    public int Value { get; } 
+}
+Output&lt;A&gt; output = ...; 
+```
+to get to the value we need to do `output.Apply(o =&gt; o.Value)` while in Node.js we could do `output.value` in a similar situation.
+We should investigate whether a similar experience in possible in C#.
+One avenue is to generate extension methods for each property:
+``` csharp
+static class Extensions
+{
+    public Output&lt;int&gt; Value(this Output&lt;A&gt; a) =&gt; a.Apply(o =&gt; o.Value);
+}
+var value = output.Value();
+```
+Related: https://github.com/pulumi/pulumi/pull/3481#discussion_r344507398</t>
+  </si>
+  <si>
+    <t>https://github.com/pulumi/pulumi-dotnet/issues/63</t>
+  </si>
+  <si>
+    <t>.NET Dynamic Providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulumi .NET SDK currently does not support [Dynamic Resource Providers](https://www.pulumi.com/docs/concepts/resources/dynamic-providers/). </t>
   </si>
 </sst>
 </file>
@@ -2547,7 +5713,7 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5613,10 +8779,2177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E88B31-5198-8B41-BB90-4EB4ADB366FD}">
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="255" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45763.463969907403</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45755.873668981498</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45751.829398148097</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="394" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45723.911643518499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45713.447974536997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45708.431458333303</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45708.190173611103</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="216" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45708.1896180556</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="216" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45708.189108796301</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45707.637986111098</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="394" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45707.403854166703</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45706.346979166701</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45685.756423611099</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45671.195798611101</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45630.621354166702</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45618.689976851798</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="377" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45617.677743055603</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45617.6629861111</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45617.236828703702</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45612.0007175926</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45610.202164351896</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45608.626493055599</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45607.685648148101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45607.1505555556</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45595.476724537002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45590.6012962963</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45582.586851851898</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="180" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45544.490763888898</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45524.526574074102</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45464.787557870397</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45369.482905092598</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45324.782476851899</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45245.474340277797</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45237.416504629597</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45231.950289351902</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45174.299444444398</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45169.344594907401</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45162.5534259259</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45156.840312499997</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45131.3296990741</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45110.506400462997</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="324" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45107.5944675926</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45065.919618055603</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45043.384606481501</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45040.722337963001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45023.830543981501</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45023.346759259301</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45021.302488425899</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45015.638460648202</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45012.287685185198</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="360" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44960.660243055601</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44944.332766203697</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44867.5149074074</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44865.369363425903</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="216" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44841.842025462996</v>
+      </c>
+      <c r="D56" s="2">
+        <v>42</v>
+      </c>
+      <c r="E56" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44818.645555555602</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="360" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44805.3499884259</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44796.433171296303</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44787.841712963003</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44693.273773148103</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44602.618368055599</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44557.8673263889</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="394" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44460.554490740702</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44455.741041666697</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44441.899780092601</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44385.823472222197</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44377.805289351898</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44368.998321759304</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44357.5082175926</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="394" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44356.904710648101</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44328.160798611098</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44326.8594212963</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44307.2285416667</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44285.6562962963</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44264.947222222203</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44210.620636574102</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44180.669097222199</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44134.773113425901</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="324" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44085.815682870401</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44049.097638888903</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="394" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44028.308402777802</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44011.489629629599</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C84" s="3">
+        <v>43968.691874999997</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C85" s="3">
+        <v>43956.5750694444</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C86" s="3">
+        <v>43938.6813078704</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C87" s="3">
+        <v>43938.643750000003</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="126" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C88" s="3">
+        <v>43916.6301157407</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="342" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" s="3">
+        <v>43903.581932870402</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" ht="252" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C90" s="3">
+        <v>43902.627835648098</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C91" s="3">
+        <v>43818.887071759302</v>
+      </c>
+      <c r="D91" s="2">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C92" s="3">
+        <v>43810.589039351798</v>
+      </c>
+      <c r="D92" s="2">
+        <v>17</v>
+      </c>
+      <c r="E92" s="2">
+        <v>17</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C93" s="3">
+        <v>43810.555081018501</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C94" s="3">
+        <v>43810.553865740701</v>
+      </c>
+      <c r="D94" s="2">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C95" s="3">
+        <v>43810.552662037</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43810.542858796303</v>
+      </c>
+      <c r="D96" s="2">
+        <v>48</v>
+      </c>
+      <c r="E96" s="2">
+        <v>46</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{51A53FF8-B963-F24E-BEF5-004A357188C2}"/>
+    <hyperlink ref="A35" r:id="rId2" xr:uid="{54EE163D-20EF-D74F-8A84-8FD3DC37D29F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
